--- a/files/tabel/tabel-2018-04.xlsx
+++ b/files/tabel/tabel-2018-04.xlsx
@@ -228,7 +228,10 @@
     <t>АПРЕЛЯ</t>
   </si>
   <si>
-    <t>20/04/2018</t>
+    <t>27/04/2018</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
   <si>
     <t>апреля</t>
@@ -430,9 +433,6 @@
   </si>
   <si>
     <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
   </si>
   <si>
     <t>Ляпин А.А.</t>
@@ -22160,7 +22160,7 @@
       </c>
       <c r="CK15" s="98"/>
       <c r="CL15" s="97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CM15" s="98"/>
       <c r="CN15" s="97" t="s">
@@ -22458,7 +22458,7 @@
       </c>
       <c r="B18" s="65"/>
       <c r="C18" s="66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="66"/>
       <c r="E18" s="66"/>
@@ -22472,19 +22472,19 @@
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P18" s="68"/>
       <c r="Q18" s="68"/>
       <c r="R18" s="69"/>
       <c r="S18" s="67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T18" s="68"/>
       <c r="U18" s="68"/>
       <c r="V18" s="69"/>
       <c r="W18" s="67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X18" s="68"/>
       <c r="Y18" s="68"/>
@@ -22493,135 +22493,135 @@
       <c r="AB18" s="68"/>
       <c r="AC18" s="69"/>
       <c r="AD18" s="5873" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE18" s="61"/>
       <c r="AF18" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG18" s="61"/>
       <c r="AH18" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI18" s="61"/>
       <c r="AJ18" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK18" s="61"/>
       <c r="AL18" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM18" s="61"/>
       <c r="AN18" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO18" s="61"/>
       <c r="AP18" s="5874" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ18" s="61"/>
       <c r="AR18" s="5875" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS18" s="61"/>
       <c r="AT18" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU18" s="61"/>
       <c r="AV18" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW18" s="61"/>
       <c r="AX18" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY18" s="61"/>
       <c r="AZ18" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA18" s="61"/>
       <c r="BB18" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC18" s="61"/>
       <c r="BD18" s="5876" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE18" s="61"/>
       <c r="BF18" s="5877" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG18" s="61"/>
       <c r="BH18" s="62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI18" s="62"/>
       <c r="BJ18" s="62"/>
       <c r="BK18" s="62"/>
       <c r="BL18" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM18" s="61"/>
       <c r="BN18" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO18" s="61"/>
       <c r="BP18" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ18" s="61"/>
       <c r="BR18" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS18" s="61"/>
       <c r="BT18" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU18" s="61"/>
       <c r="BV18" s="5878" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW18" s="61"/>
       <c r="BX18" s="5879" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY18" s="61"/>
       <c r="BZ18" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA18" s="61"/>
       <c r="CB18" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC18" s="61"/>
       <c r="CD18" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE18" s="61"/>
       <c r="CF18" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG18" s="61"/>
       <c r="CH18" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI18" s="61"/>
       <c r="CJ18" s="5880" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK18" s="61"/>
       <c r="CL18" s="5881" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM18" s="61"/>
       <c r="CN18" s="5882" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO18" s="61"/>
       <c r="CP18" s="61"/>
       <c r="CQ18" s="61"/>
       <c r="CR18" s="62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS18" s="62"/>
       <c r="CT18" s="62"/>
@@ -22658,7 +22658,7 @@
       <c r="AB19" s="71"/>
       <c r="AC19" s="72"/>
       <c r="AD19" s="5873" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE19" s="61"/>
       <c r="AF19" s="61" t="n">
@@ -22682,11 +22682,11 @@
       </c>
       <c r="AO19" s="61"/>
       <c r="AP19" s="5874" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ19" s="61"/>
       <c r="AR19" s="5875" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS19" s="61"/>
       <c r="AT19" s="61" t="n">
@@ -22710,11 +22710,11 @@
       </c>
       <c r="BC19" s="61"/>
       <c r="BD19" s="5876" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE19" s="61"/>
       <c r="BF19" s="5877" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG19" s="61"/>
       <c r="BH19" s="62"/>
@@ -22742,11 +22742,11 @@
       </c>
       <c r="BU19" s="61"/>
       <c r="BV19" s="5878" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW19" s="61"/>
       <c r="BX19" s="5879" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY19" s="61"/>
       <c r="BZ19" s="61" t="n">
@@ -22774,11 +22774,11 @@
       </c>
       <c r="CK19" s="61"/>
       <c r="CL19" s="5881" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM19" s="61"/>
       <c r="CN19" s="5882" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO19" s="61"/>
       <c r="CP19" s="61"/>
@@ -22794,7 +22794,7 @@
       </c>
       <c r="B20" s="132"/>
       <c r="C20" s="133" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="134"/>
       <c r="E20" s="135"/>
@@ -22808,19 +22808,19 @@
       <c r="M20" s="143"/>
       <c r="N20" s="144"/>
       <c r="O20" s="145" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P20" s="146"/>
       <c r="Q20" s="147"/>
       <c r="R20" s="148"/>
       <c r="S20" s="149" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T20" s="150"/>
       <c r="U20" s="151"/>
       <c r="V20" s="152"/>
       <c r="W20" s="153" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X20" s="154"/>
       <c r="Y20" s="155"/>
@@ -22829,135 +22829,135 @@
       <c r="AB20" s="158"/>
       <c r="AC20" s="159"/>
       <c r="AD20" s="5883" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE20" s="161"/>
       <c r="AF20" s="162" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG20" s="163"/>
       <c r="AH20" s="164" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI20" s="165"/>
       <c r="AJ20" s="166" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK20" s="167"/>
       <c r="AL20" s="168" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM20" s="169"/>
       <c r="AN20" s="170" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO20" s="171"/>
       <c r="AP20" s="5884" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ20" s="173"/>
       <c r="AR20" s="5885" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS20" s="175"/>
       <c r="AT20" s="176" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU20" s="177"/>
       <c r="AV20" s="178" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW20" s="179"/>
       <c r="AX20" s="180" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY20" s="181"/>
       <c r="AZ20" s="182" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA20" s="183"/>
       <c r="BB20" s="184" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC20" s="185"/>
       <c r="BD20" s="5886" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE20" s="187"/>
       <c r="BF20" s="5887" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG20" s="189"/>
       <c r="BH20" s="190" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI20" s="191"/>
       <c r="BJ20" s="192"/>
       <c r="BK20" s="193"/>
       <c r="BL20" s="194" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM20" s="195"/>
       <c r="BN20" s="196" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO20" s="197"/>
       <c r="BP20" s="198" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ20" s="199"/>
       <c r="BR20" s="200" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS20" s="201"/>
       <c r="BT20" s="202" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU20" s="203"/>
       <c r="BV20" s="5888" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW20" s="205"/>
       <c r="BX20" s="5889" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY20" s="207"/>
       <c r="BZ20" s="208" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA20" s="209"/>
       <c r="CB20" s="210" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC20" s="211"/>
       <c r="CD20" s="212" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE20" s="213"/>
       <c r="CF20" s="214" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG20" s="215"/>
       <c r="CH20" s="216" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI20" s="217"/>
       <c r="CJ20" s="5890" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK20" s="219"/>
       <c r="CL20" s="5891" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM20" s="221"/>
       <c r="CN20" s="5892" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO20" s="223"/>
       <c r="CP20" s="224"/>
       <c r="CQ20" s="225"/>
       <c r="CR20" s="226" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS20" s="227"/>
       <c r="CT20" s="228"/>
@@ -22994,7 +22994,7 @@
       <c r="AB21" s="257"/>
       <c r="AC21" s="258"/>
       <c r="AD21" s="5883" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE21" s="260"/>
       <c r="AF21" s="261" t="n">
@@ -23018,11 +23018,11 @@
       </c>
       <c r="AO21" s="270"/>
       <c r="AP21" s="5884" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ21" s="272"/>
       <c r="AR21" s="5885" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS21" s="274"/>
       <c r="AT21" s="275" t="n">
@@ -23046,11 +23046,11 @@
       </c>
       <c r="BC21" s="284"/>
       <c r="BD21" s="5886" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE21" s="286"/>
       <c r="BF21" s="5887" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG21" s="288"/>
       <c r="BH21" s="289"/>
@@ -23078,11 +23078,11 @@
       </c>
       <c r="BU21" s="302"/>
       <c r="BV21" s="5888" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW21" s="304"/>
       <c r="BX21" s="5889" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY21" s="306"/>
       <c r="BZ21" s="307" t="n">
@@ -23110,11 +23110,11 @@
       </c>
       <c r="CK21" s="318"/>
       <c r="CL21" s="5891" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM21" s="320"/>
       <c r="CN21" s="5892" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO21" s="322"/>
       <c r="CP21" s="323"/>
@@ -23130,7 +23130,7 @@
       </c>
       <c r="B22" s="330"/>
       <c r="C22" s="331" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="332"/>
       <c r="E22" s="333"/>
@@ -23144,19 +23144,19 @@
       <c r="M22" s="341"/>
       <c r="N22" s="342"/>
       <c r="O22" s="343" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P22" s="344"/>
       <c r="Q22" s="345"/>
       <c r="R22" s="346"/>
       <c r="S22" s="347" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T22" s="348"/>
       <c r="U22" s="349"/>
       <c r="V22" s="350"/>
       <c r="W22" s="351" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X22" s="352"/>
       <c r="Y22" s="353"/>
@@ -23165,135 +23165,135 @@
       <c r="AB22" s="356"/>
       <c r="AC22" s="357"/>
       <c r="AD22" s="5893" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE22" s="359"/>
       <c r="AF22" s="360" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG22" s="361"/>
       <c r="AH22" s="362" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI22" s="363"/>
       <c r="AJ22" s="364" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK22" s="365"/>
       <c r="AL22" s="366" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM22" s="367"/>
       <c r="AN22" s="368" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO22" s="369"/>
       <c r="AP22" s="5894" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ22" s="371"/>
       <c r="AR22" s="5895" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS22" s="373"/>
       <c r="AT22" s="374" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU22" s="375"/>
       <c r="AV22" s="376" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW22" s="377"/>
       <c r="AX22" s="378" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY22" s="379"/>
       <c r="AZ22" s="380" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA22" s="381"/>
       <c r="BB22" s="382" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC22" s="383"/>
       <c r="BD22" s="5896" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE22" s="385"/>
       <c r="BF22" s="5897" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG22" s="387"/>
       <c r="BH22" s="388" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI22" s="389"/>
       <c r="BJ22" s="390"/>
       <c r="BK22" s="391"/>
       <c r="BL22" s="392" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM22" s="393"/>
       <c r="BN22" s="394" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO22" s="395"/>
       <c r="BP22" s="396" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ22" s="397"/>
       <c r="BR22" s="398" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS22" s="399"/>
       <c r="BT22" s="400" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU22" s="401"/>
       <c r="BV22" s="5898" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW22" s="403"/>
       <c r="BX22" s="5899" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY22" s="405"/>
       <c r="BZ22" s="406" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA22" s="407"/>
       <c r="CB22" s="408" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC22" s="409"/>
       <c r="CD22" s="410" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE22" s="411"/>
       <c r="CF22" s="412" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG22" s="413"/>
       <c r="CH22" s="414" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI22" s="415"/>
       <c r="CJ22" s="5900" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK22" s="417"/>
       <c r="CL22" s="5901" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM22" s="419"/>
       <c r="CN22" s="5902" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO22" s="421"/>
       <c r="CP22" s="422"/>
       <c r="CQ22" s="423"/>
       <c r="CR22" s="424" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS22" s="425"/>
       <c r="CT22" s="426"/>
@@ -23330,7 +23330,7 @@
       <c r="AB23" s="455"/>
       <c r="AC23" s="456"/>
       <c r="AD23" s="5893" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE23" s="458"/>
       <c r="AF23" s="459" t="n">
@@ -23354,11 +23354,11 @@
       </c>
       <c r="AO23" s="468"/>
       <c r="AP23" s="5894" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ23" s="470"/>
       <c r="AR23" s="5895" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS23" s="472"/>
       <c r="AT23" s="473" t="n">
@@ -23382,11 +23382,11 @@
       </c>
       <c r="BC23" s="482"/>
       <c r="BD23" s="5896" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE23" s="484"/>
       <c r="BF23" s="5897" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG23" s="486"/>
       <c r="BH23" s="487"/>
@@ -23414,11 +23414,11 @@
       </c>
       <c r="BU23" s="500"/>
       <c r="BV23" s="5898" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW23" s="502"/>
       <c r="BX23" s="5899" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY23" s="504"/>
       <c r="BZ23" s="505" t="n">
@@ -23446,11 +23446,11 @@
       </c>
       <c r="CK23" s="516"/>
       <c r="CL23" s="5901" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM23" s="518"/>
       <c r="CN23" s="5902" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO23" s="520"/>
       <c r="CP23" s="521"/>
@@ -23466,7 +23466,7 @@
       </c>
       <c r="B24" s="528"/>
       <c r="C24" s="529" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="530"/>
       <c r="E24" s="531"/>
@@ -23480,19 +23480,19 @@
       <c r="M24" s="539"/>
       <c r="N24" s="540"/>
       <c r="O24" s="541" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P24" s="542"/>
       <c r="Q24" s="543"/>
       <c r="R24" s="544"/>
       <c r="S24" s="545" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T24" s="546"/>
       <c r="U24" s="547"/>
       <c r="V24" s="548"/>
       <c r="W24" s="549" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X24" s="550"/>
       <c r="Y24" s="551"/>
@@ -23501,135 +23501,135 @@
       <c r="AB24" s="554"/>
       <c r="AC24" s="555"/>
       <c r="AD24" s="5903" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE24" s="557"/>
       <c r="AF24" s="5904" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG24" s="559"/>
       <c r="AH24" s="5905" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI24" s="561"/>
       <c r="AJ24" s="5906" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK24" s="563"/>
       <c r="AL24" s="5907" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM24" s="565"/>
       <c r="AN24" s="5908" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO24" s="567"/>
       <c r="AP24" s="5909" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AQ24" s="569"/>
       <c r="AR24" s="5910" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AS24" s="571"/>
       <c r="AT24" s="5911" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AU24" s="573"/>
       <c r="AV24" s="5912" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AW24" s="575"/>
       <c r="AX24" s="5913" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AY24" s="577"/>
       <c r="AZ24" s="5914" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BA24" s="579"/>
       <c r="BB24" s="5915" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BC24" s="581"/>
       <c r="BD24" s="5916" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BE24" s="583"/>
       <c r="BF24" s="5917" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BG24" s="585"/>
       <c r="BH24" s="586" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BI24" s="587"/>
       <c r="BJ24" s="588"/>
       <c r="BK24" s="589"/>
       <c r="BL24" s="5918" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BM24" s="591"/>
       <c r="BN24" s="5919" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BO24" s="593"/>
       <c r="BP24" s="5920" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BQ24" s="595"/>
       <c r="BR24" s="5921" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BS24" s="597"/>
       <c r="BT24" s="5922" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BU24" s="599"/>
       <c r="BV24" s="5923" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BW24" s="601"/>
       <c r="BX24" s="5924" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BY24" s="603"/>
       <c r="BZ24" s="5925" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CA24" s="605"/>
       <c r="CB24" s="5926" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CC24" s="607"/>
       <c r="CD24" s="5927" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CE24" s="609"/>
       <c r="CF24" s="5928" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CG24" s="611"/>
       <c r="CH24" s="5929" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CI24" s="613"/>
       <c r="CJ24" s="5930" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CK24" s="615"/>
       <c r="CL24" s="5931" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CM24" s="617"/>
       <c r="CN24" s="5932" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CO24" s="619"/>
       <c r="CP24" s="620"/>
       <c r="CQ24" s="621"/>
       <c r="CR24" s="622" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CS24" s="623"/>
       <c r="CT24" s="624"/>
@@ -23666,63 +23666,63 @@
       <c r="AB25" s="653"/>
       <c r="AC25" s="654"/>
       <c r="AD25" s="5903" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE25" s="656"/>
       <c r="AF25" s="5904" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG25" s="658"/>
       <c r="AH25" s="5905" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI25" s="660"/>
       <c r="AJ25" s="5906" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK25" s="662"/>
       <c r="AL25" s="5907" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM25" s="664"/>
       <c r="AN25" s="5908" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO25" s="666"/>
       <c r="AP25" s="5909" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ25" s="668"/>
       <c r="AR25" s="5910" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS25" s="670"/>
       <c r="AT25" s="5911" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AU25" s="672"/>
       <c r="AV25" s="5912" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AW25" s="674"/>
       <c r="AX25" s="5913" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AY25" s="676"/>
       <c r="AZ25" s="5914" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA25" s="678"/>
       <c r="BB25" s="5915" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC25" s="680"/>
       <c r="BD25" s="5916" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE25" s="682"/>
       <c r="BF25" s="5917" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG25" s="684"/>
       <c r="BH25" s="685"/>
@@ -23730,63 +23730,63 @@
       <c r="BJ25" s="687"/>
       <c r="BK25" s="688"/>
       <c r="BL25" s="5918" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM25" s="690"/>
       <c r="BN25" s="5919" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BO25" s="692"/>
       <c r="BP25" s="5920" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BQ25" s="694"/>
       <c r="BR25" s="5921" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS25" s="696"/>
       <c r="BT25" s="5922" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU25" s="698"/>
       <c r="BV25" s="5923" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW25" s="700"/>
       <c r="BX25" s="5924" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY25" s="702"/>
       <c r="BZ25" s="5925" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA25" s="704"/>
       <c r="CB25" s="5926" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CC25" s="706"/>
       <c r="CD25" s="5927" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CE25" s="708"/>
       <c r="CF25" s="5928" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG25" s="710"/>
       <c r="CH25" s="5929" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI25" s="712"/>
       <c r="CJ25" s="5930" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK25" s="714"/>
       <c r="CL25" s="5931" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM25" s="716"/>
       <c r="CN25" s="5932" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO25" s="718"/>
       <c r="CP25" s="719"/>
@@ -23802,7 +23802,7 @@
       </c>
       <c r="B26" s="726"/>
       <c r="C26" s="727" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="728"/>
       <c r="E26" s="729"/>
@@ -23816,19 +23816,19 @@
       <c r="M26" s="737"/>
       <c r="N26" s="738"/>
       <c r="O26" s="739" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P26" s="740"/>
       <c r="Q26" s="741"/>
       <c r="R26" s="742"/>
       <c r="S26" s="743" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T26" s="744"/>
       <c r="U26" s="745"/>
       <c r="V26" s="746"/>
       <c r="W26" s="747" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X26" s="748"/>
       <c r="Y26" s="749"/>
@@ -23837,135 +23837,135 @@
       <c r="AB26" s="752"/>
       <c r="AC26" s="753"/>
       <c r="AD26" s="5933" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE26" s="755"/>
       <c r="AF26" s="756" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG26" s="757"/>
       <c r="AH26" s="758" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI26" s="759"/>
       <c r="AJ26" s="760" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK26" s="761"/>
       <c r="AL26" s="762" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM26" s="763"/>
       <c r="AN26" s="764" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO26" s="765"/>
       <c r="AP26" s="5934" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ26" s="767"/>
       <c r="AR26" s="5935" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS26" s="769"/>
       <c r="AT26" s="770" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU26" s="771"/>
       <c r="AV26" s="772" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW26" s="773"/>
       <c r="AX26" s="774" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY26" s="775"/>
       <c r="AZ26" s="776" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA26" s="777"/>
       <c r="BB26" s="778" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC26" s="779"/>
       <c r="BD26" s="5936" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE26" s="781"/>
       <c r="BF26" s="5937" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG26" s="783"/>
       <c r="BH26" s="784" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI26" s="785"/>
       <c r="BJ26" s="786"/>
       <c r="BK26" s="787"/>
       <c r="BL26" s="788" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM26" s="789"/>
       <c r="BN26" s="790" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO26" s="791"/>
       <c r="BP26" s="792" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ26" s="793"/>
       <c r="BR26" s="794" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS26" s="795"/>
       <c r="BT26" s="796" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU26" s="797"/>
       <c r="BV26" s="5938" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW26" s="799"/>
       <c r="BX26" s="5939" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY26" s="801"/>
       <c r="BZ26" s="802" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA26" s="803"/>
       <c r="CB26" s="804" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC26" s="805"/>
       <c r="CD26" s="806" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE26" s="807"/>
       <c r="CF26" s="808" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG26" s="809"/>
       <c r="CH26" s="810" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI26" s="811"/>
       <c r="CJ26" s="5940" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK26" s="813"/>
       <c r="CL26" s="5941" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM26" s="815"/>
       <c r="CN26" s="5942" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO26" s="817"/>
       <c r="CP26" s="818"/>
       <c r="CQ26" s="819"/>
       <c r="CR26" s="820" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS26" s="821"/>
       <c r="CT26" s="822"/>
@@ -24002,7 +24002,7 @@
       <c r="AB27" s="851"/>
       <c r="AC27" s="852"/>
       <c r="AD27" s="5933" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE27" s="854"/>
       <c r="AF27" s="855" t="n">
@@ -24026,11 +24026,11 @@
       </c>
       <c r="AO27" s="864"/>
       <c r="AP27" s="5934" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ27" s="866"/>
       <c r="AR27" s="5935" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS27" s="868"/>
       <c r="AT27" s="869" t="n">
@@ -24054,11 +24054,11 @@
       </c>
       <c r="BC27" s="878"/>
       <c r="BD27" s="5936" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE27" s="880"/>
       <c r="BF27" s="5937" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG27" s="882"/>
       <c r="BH27" s="883"/>
@@ -24086,11 +24086,11 @@
       </c>
       <c r="BU27" s="896"/>
       <c r="BV27" s="5938" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW27" s="898"/>
       <c r="BX27" s="5939" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY27" s="900"/>
       <c r="BZ27" s="901" t="n">
@@ -24118,11 +24118,11 @@
       </c>
       <c r="CK27" s="912"/>
       <c r="CL27" s="5941" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM27" s="914"/>
       <c r="CN27" s="5942" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO27" s="916"/>
       <c r="CP27" s="917"/>
@@ -24138,7 +24138,7 @@
       </c>
       <c r="B28" s="924"/>
       <c r="C28" s="925" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="926"/>
       <c r="E28" s="927"/>
@@ -24152,19 +24152,19 @@
       <c r="M28" s="935"/>
       <c r="N28" s="936"/>
       <c r="O28" s="937" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P28" s="938"/>
       <c r="Q28" s="939"/>
       <c r="R28" s="940"/>
       <c r="S28" s="941" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T28" s="942"/>
       <c r="U28" s="943"/>
       <c r="V28" s="944"/>
       <c r="W28" s="945" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X28" s="946"/>
       <c r="Y28" s="947"/>
@@ -24173,135 +24173,135 @@
       <c r="AB28" s="950"/>
       <c r="AC28" s="951"/>
       <c r="AD28" s="5943" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE28" s="953"/>
       <c r="AF28" s="954" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG28" s="955"/>
       <c r="AH28" s="956" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI28" s="957"/>
       <c r="AJ28" s="958" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK28" s="959"/>
       <c r="AL28" s="960" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM28" s="961"/>
       <c r="AN28" s="962" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO28" s="963"/>
       <c r="AP28" s="5944" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ28" s="965"/>
       <c r="AR28" s="5945" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS28" s="967"/>
       <c r="AT28" s="968" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU28" s="969"/>
       <c r="AV28" s="970" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW28" s="971"/>
       <c r="AX28" s="972" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY28" s="973"/>
       <c r="AZ28" s="974" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA28" s="975"/>
       <c r="BB28" s="976" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC28" s="977"/>
       <c r="BD28" s="5946" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE28" s="979"/>
       <c r="BF28" s="5947" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG28" s="981"/>
       <c r="BH28" s="982" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI28" s="983"/>
       <c r="BJ28" s="984"/>
       <c r="BK28" s="985"/>
       <c r="BL28" s="986" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM28" s="987"/>
       <c r="BN28" s="988" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO28" s="989"/>
       <c r="BP28" s="990" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ28" s="991"/>
       <c r="BR28" s="992" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS28" s="993"/>
       <c r="BT28" s="994" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU28" s="995"/>
       <c r="BV28" s="5948" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW28" s="997"/>
       <c r="BX28" s="5949" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY28" s="999"/>
       <c r="BZ28" s="1000" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA28" s="1001"/>
       <c r="CB28" s="1002" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC28" s="1003"/>
       <c r="CD28" s="1004" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE28" s="1005"/>
       <c r="CF28" s="1006" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG28" s="1007"/>
       <c r="CH28" s="1008" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI28" s="1009"/>
       <c r="CJ28" s="5950" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK28" s="1011"/>
       <c r="CL28" s="5951" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM28" s="1013"/>
       <c r="CN28" s="5952" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO28" s="1015"/>
       <c r="CP28" s="1016"/>
       <c r="CQ28" s="1017"/>
       <c r="CR28" s="1018" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS28" s="1019"/>
       <c r="CT28" s="1020"/>
@@ -24338,7 +24338,7 @@
       <c r="AB29" s="1049"/>
       <c r="AC29" s="1050"/>
       <c r="AD29" s="5943" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE29" s="1052"/>
       <c r="AF29" s="1053" t="n">
@@ -24362,11 +24362,11 @@
       </c>
       <c r="AO29" s="1062"/>
       <c r="AP29" s="5944" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ29" s="1064"/>
       <c r="AR29" s="5945" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS29" s="1066"/>
       <c r="AT29" s="1067" t="n">
@@ -24390,11 +24390,11 @@
       </c>
       <c r="BC29" s="1076"/>
       <c r="BD29" s="5946" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE29" s="1078"/>
       <c r="BF29" s="5947" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG29" s="1080"/>
       <c r="BH29" s="1081"/>
@@ -24422,11 +24422,11 @@
       </c>
       <c r="BU29" s="1094"/>
       <c r="BV29" s="5948" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW29" s="1096"/>
       <c r="BX29" s="5949" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY29" s="1098"/>
       <c r="BZ29" s="1099" t="n">
@@ -24454,11 +24454,11 @@
       </c>
       <c r="CK29" s="1110"/>
       <c r="CL29" s="5951" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM29" s="1112"/>
       <c r="CN29" s="5952" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO29" s="1114"/>
       <c r="CP29" s="1115"/>
@@ -24474,7 +24474,7 @@
       </c>
       <c r="B30" s="1122"/>
       <c r="C30" s="1123" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D30" s="1124"/>
       <c r="E30" s="1125"/>
@@ -24488,19 +24488,19 @@
       <c r="M30" s="1133"/>
       <c r="N30" s="1134"/>
       <c r="O30" s="1135" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P30" s="1136"/>
       <c r="Q30" s="1137"/>
       <c r="R30" s="1138"/>
       <c r="S30" s="1139" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T30" s="1140"/>
       <c r="U30" s="1141"/>
       <c r="V30" s="1142"/>
       <c r="W30" s="1143" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X30" s="1144"/>
       <c r="Y30" s="1145"/>
@@ -24517,119 +24517,119 @@
       <c r="AJ30" s="1156"/>
       <c r="AK30" s="1157"/>
       <c r="AL30" s="1158" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM30" s="1159"/>
       <c r="AN30" s="1160" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO30" s="1161"/>
       <c r="AP30" s="5953" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ30" s="1163"/>
       <c r="AR30" s="5954" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS30" s="1165"/>
       <c r="AT30" s="1166" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU30" s="1167"/>
       <c r="AV30" s="1168" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW30" s="1169"/>
       <c r="AX30" s="1170" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY30" s="1171"/>
       <c r="AZ30" s="1172" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA30" s="1173"/>
       <c r="BB30" s="1174" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC30" s="1175"/>
       <c r="BD30" s="5955" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE30" s="1177"/>
       <c r="BF30" s="5956" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG30" s="1179"/>
       <c r="BH30" s="1180" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BI30" s="1181"/>
       <c r="BJ30" s="1182"/>
       <c r="BK30" s="1183"/>
       <c r="BL30" s="1184" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM30" s="1185"/>
       <c r="BN30" s="1186" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO30" s="1187"/>
       <c r="BP30" s="1188" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ30" s="1189"/>
       <c r="BR30" s="1190" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS30" s="1191"/>
       <c r="BT30" s="1192" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU30" s="1193"/>
       <c r="BV30" s="5957" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW30" s="1195"/>
       <c r="BX30" s="5958" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY30" s="1197"/>
       <c r="BZ30" s="1198" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA30" s="1199"/>
       <c r="CB30" s="1200" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC30" s="1201"/>
       <c r="CD30" s="1202" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE30" s="1203"/>
       <c r="CF30" s="1204" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG30" s="1205"/>
       <c r="CH30" s="1206" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI30" s="1207"/>
       <c r="CJ30" s="5959" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK30" s="1209"/>
       <c r="CL30" s="5960" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM30" s="1211"/>
       <c r="CN30" s="5961" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO30" s="1213"/>
       <c r="CP30" s="1214"/>
       <c r="CQ30" s="1215"/>
       <c r="CR30" s="1216" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CS30" s="1217"/>
       <c r="CT30" s="1218"/>
@@ -24682,11 +24682,11 @@
       </c>
       <c r="AO31" s="1260"/>
       <c r="AP31" s="5953" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ31" s="1262"/>
       <c r="AR31" s="5954" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS31" s="1264"/>
       <c r="AT31" s="1265" t="n">
@@ -24710,11 +24710,11 @@
       </c>
       <c r="BC31" s="1274"/>
       <c r="BD31" s="5955" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE31" s="1276"/>
       <c r="BF31" s="5956" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG31" s="1278"/>
       <c r="BH31" s="1279"/>
@@ -24742,11 +24742,11 @@
       </c>
       <c r="BU31" s="1292"/>
       <c r="BV31" s="5957" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW31" s="1294"/>
       <c r="BX31" s="5958" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY31" s="1296"/>
       <c r="BZ31" s="1297" t="n">
@@ -24774,11 +24774,11 @@
       </c>
       <c r="CK31" s="1308"/>
       <c r="CL31" s="5960" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM31" s="1310"/>
       <c r="CN31" s="5961" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO31" s="1312"/>
       <c r="CP31" s="1313"/>
@@ -24794,7 +24794,7 @@
       </c>
       <c r="B32" s="1320"/>
       <c r="C32" s="1321" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D32" s="1322"/>
       <c r="E32" s="1323"/>
@@ -24808,19 +24808,19 @@
       <c r="M32" s="1331"/>
       <c r="N32" s="1332"/>
       <c r="O32" s="1333" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P32" s="1334"/>
       <c r="Q32" s="1335"/>
       <c r="R32" s="1336"/>
       <c r="S32" s="1337" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T32" s="1338"/>
       <c r="U32" s="1339"/>
       <c r="V32" s="1340"/>
       <c r="W32" s="1341" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X32" s="1342"/>
       <c r="Y32" s="1343"/>
@@ -24829,135 +24829,135 @@
       <c r="AB32" s="1346"/>
       <c r="AC32" s="1347"/>
       <c r="AD32" s="5962" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE32" s="1349"/>
       <c r="AF32" s="5963" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG32" s="1351"/>
       <c r="AH32" s="5964" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI32" s="1353"/>
       <c r="AJ32" s="5965" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK32" s="1355"/>
       <c r="AL32" s="5966" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM32" s="1357"/>
       <c r="AN32" s="5967" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO32" s="1359"/>
       <c r="AP32" s="5968" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AQ32" s="1361"/>
       <c r="AR32" s="5969" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AS32" s="1363"/>
       <c r="AT32" s="5970" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AU32" s="1365"/>
       <c r="AV32" s="5971" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AW32" s="1367"/>
       <c r="AX32" s="5972" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AY32" s="1369"/>
       <c r="AZ32" s="5973" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BA32" s="1371"/>
       <c r="BB32" s="5974" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BC32" s="1373"/>
       <c r="BD32" s="5975" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BE32" s="1375"/>
       <c r="BF32" s="5976" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BG32" s="1377"/>
       <c r="BH32" s="1378" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BI32" s="1379"/>
       <c r="BJ32" s="1380"/>
       <c r="BK32" s="1381"/>
       <c r="BL32" s="5977" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BM32" s="1383"/>
       <c r="BN32" s="5978" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BO32" s="1385"/>
       <c r="BP32" s="5979" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BQ32" s="1387"/>
       <c r="BR32" s="5980" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BS32" s="1389"/>
       <c r="BT32" s="5981" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BU32" s="1391"/>
       <c r="BV32" s="5982" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BW32" s="1393"/>
       <c r="BX32" s="5983" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BY32" s="1395"/>
       <c r="BZ32" s="5984" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CA32" s="1397"/>
       <c r="CB32" s="5985" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CC32" s="1399"/>
       <c r="CD32" s="5986" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CE32" s="1401"/>
       <c r="CF32" s="5987" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CG32" s="1403"/>
       <c r="CH32" s="5988" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CI32" s="1405"/>
       <c r="CJ32" s="5989" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CK32" s="1407"/>
       <c r="CL32" s="5990" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CM32" s="1409"/>
       <c r="CN32" s="5991" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CO32" s="1411"/>
       <c r="CP32" s="1412"/>
       <c r="CQ32" s="1413"/>
       <c r="CR32" s="1414" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CS32" s="1415"/>
       <c r="CT32" s="1416"/>
@@ -24994,63 +24994,63 @@
       <c r="AB33" s="1445"/>
       <c r="AC33" s="1446"/>
       <c r="AD33" s="5962" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE33" s="1448"/>
       <c r="AF33" s="5963" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG33" s="1450"/>
       <c r="AH33" s="5964" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI33" s="1452"/>
       <c r="AJ33" s="5965" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK33" s="1454"/>
       <c r="AL33" s="5966" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM33" s="1456"/>
       <c r="AN33" s="5967" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO33" s="1458"/>
       <c r="AP33" s="5968" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ33" s="1460"/>
       <c r="AR33" s="5969" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS33" s="1462"/>
       <c r="AT33" s="5970" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AU33" s="1464"/>
       <c r="AV33" s="5971" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AW33" s="1466"/>
       <c r="AX33" s="5972" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AY33" s="1468"/>
       <c r="AZ33" s="5973" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BA33" s="1470"/>
       <c r="BB33" s="5974" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC33" s="1472"/>
       <c r="BD33" s="5975" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE33" s="1474"/>
       <c r="BF33" s="5976" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG33" s="1476"/>
       <c r="BH33" s="1477"/>
@@ -25058,63 +25058,63 @@
       <c r="BJ33" s="1479"/>
       <c r="BK33" s="1480"/>
       <c r="BL33" s="5977" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM33" s="1482"/>
       <c r="BN33" s="5978" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BO33" s="1484"/>
       <c r="BP33" s="5979" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BQ33" s="1486"/>
       <c r="BR33" s="5980" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS33" s="1488"/>
       <c r="BT33" s="5981" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU33" s="1490"/>
       <c r="BV33" s="5982" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW33" s="1492"/>
       <c r="BX33" s="5983" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY33" s="1494"/>
       <c r="BZ33" s="5984" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CA33" s="1496"/>
       <c r="CB33" s="5985" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CC33" s="1498"/>
       <c r="CD33" s="5986" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CE33" s="1500"/>
       <c r="CF33" s="5987" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CG33" s="1502"/>
       <c r="CH33" s="5988" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CI33" s="1504"/>
       <c r="CJ33" s="5989" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CK33" s="1506"/>
       <c r="CL33" s="5990" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM33" s="1508"/>
       <c r="CN33" s="5991" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO33" s="1510"/>
       <c r="CP33" s="1511"/>
@@ -25130,7 +25130,7 @@
       </c>
       <c r="B34" s="1518"/>
       <c r="C34" s="1519" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D34" s="1520"/>
       <c r="E34" s="1521"/>
@@ -25144,19 +25144,19 @@
       <c r="M34" s="1529"/>
       <c r="N34" s="1530"/>
       <c r="O34" s="1531" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P34" s="1532"/>
       <c r="Q34" s="1533"/>
       <c r="R34" s="1534"/>
       <c r="S34" s="1535" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T34" s="1536"/>
       <c r="U34" s="1537"/>
       <c r="V34" s="1538"/>
       <c r="W34" s="1539" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X34" s="1540"/>
       <c r="Y34" s="1541"/>
@@ -25165,135 +25165,135 @@
       <c r="AB34" s="1544"/>
       <c r="AC34" s="1545"/>
       <c r="AD34" s="5992" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE34" s="1547"/>
       <c r="AF34" s="1548" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG34" s="1549"/>
       <c r="AH34" s="1550" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI34" s="1551"/>
       <c r="AJ34" s="1552" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK34" s="1553"/>
       <c r="AL34" s="1554" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM34" s="1555"/>
       <c r="AN34" s="1556" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO34" s="1557"/>
       <c r="AP34" s="5993" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ34" s="1559"/>
       <c r="AR34" s="5994" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS34" s="1561"/>
       <c r="AT34" s="1562" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU34" s="1563"/>
       <c r="AV34" s="1564" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW34" s="1565"/>
       <c r="AX34" s="1566" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY34" s="1567"/>
       <c r="AZ34" s="1568" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA34" s="1569"/>
       <c r="BB34" s="1570" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC34" s="1571"/>
       <c r="BD34" s="5995" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE34" s="1573"/>
       <c r="BF34" s="5996" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG34" s="1575"/>
       <c r="BH34" s="1576" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI34" s="1577"/>
       <c r="BJ34" s="1578"/>
       <c r="BK34" s="1579"/>
       <c r="BL34" s="1580" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM34" s="1581"/>
       <c r="BN34" s="1582" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO34" s="1583"/>
       <c r="BP34" s="1584" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ34" s="1585"/>
       <c r="BR34" s="1586" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS34" s="1587"/>
       <c r="BT34" s="1588" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU34" s="1589"/>
       <c r="BV34" s="5997" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW34" s="1591"/>
       <c r="BX34" s="5998" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY34" s="1593"/>
       <c r="BZ34" s="1594" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA34" s="1595"/>
       <c r="CB34" s="1596" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC34" s="1597"/>
       <c r="CD34" s="1598" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE34" s="1599"/>
       <c r="CF34" s="1600" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG34" s="1601"/>
       <c r="CH34" s="1602" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI34" s="1603"/>
       <c r="CJ34" s="5999" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK34" s="1605"/>
       <c r="CL34" s="6000" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM34" s="1607"/>
       <c r="CN34" s="6001" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO34" s="1609"/>
       <c r="CP34" s="1610"/>
       <c r="CQ34" s="1611"/>
       <c r="CR34" s="1612" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS34" s="1613"/>
       <c r="CT34" s="1614"/>
@@ -25330,7 +25330,7 @@
       <c r="AB35" s="1643"/>
       <c r="AC35" s="1644"/>
       <c r="AD35" s="5992" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE35" s="1646"/>
       <c r="AF35" s="1647" t="n">
@@ -25354,11 +25354,11 @@
       </c>
       <c r="AO35" s="1656"/>
       <c r="AP35" s="5993" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ35" s="1658"/>
       <c r="AR35" s="5994" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS35" s="1660"/>
       <c r="AT35" s="1661" t="n">
@@ -25382,11 +25382,11 @@
       </c>
       <c r="BC35" s="1670"/>
       <c r="BD35" s="5995" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE35" s="1672"/>
       <c r="BF35" s="5996" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG35" s="1674"/>
       <c r="BH35" s="1675"/>
@@ -25414,11 +25414,11 @@
       </c>
       <c r="BU35" s="1688"/>
       <c r="BV35" s="5997" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW35" s="1690"/>
       <c r="BX35" s="5998" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY35" s="1692"/>
       <c r="BZ35" s="1693" t="n">
@@ -25446,11 +25446,11 @@
       </c>
       <c r="CK35" s="1704"/>
       <c r="CL35" s="6000" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM35" s="1706"/>
       <c r="CN35" s="6001" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO35" s="1708"/>
       <c r="CP35" s="1709"/>
@@ -25466,7 +25466,7 @@
       </c>
       <c r="B36" s="1716"/>
       <c r="C36" s="1717" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D36" s="1718"/>
       <c r="E36" s="1719"/>
@@ -25480,19 +25480,19 @@
       <c r="M36" s="1727"/>
       <c r="N36" s="1728"/>
       <c r="O36" s="1729" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P36" s="1730"/>
       <c r="Q36" s="1731"/>
       <c r="R36" s="1732"/>
       <c r="S36" s="1733" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T36" s="1734"/>
       <c r="U36" s="1735"/>
       <c r="V36" s="1736"/>
       <c r="W36" s="1737" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X36" s="1738"/>
       <c r="Y36" s="1739"/>
@@ -25501,135 +25501,135 @@
       <c r="AB36" s="1742"/>
       <c r="AC36" s="1743"/>
       <c r="AD36" s="6002" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE36" s="1745"/>
       <c r="AF36" s="1746" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG36" s="1747"/>
       <c r="AH36" s="1748" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI36" s="1749"/>
       <c r="AJ36" s="1750" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK36" s="1751"/>
       <c r="AL36" s="1752" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM36" s="1753"/>
       <c r="AN36" s="1754" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO36" s="1755"/>
       <c r="AP36" s="6003" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ36" s="1757"/>
       <c r="AR36" s="6004" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS36" s="1759"/>
       <c r="AT36" s="1760" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU36" s="1761"/>
       <c r="AV36" s="1762" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW36" s="1763"/>
       <c r="AX36" s="1764" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY36" s="1765"/>
       <c r="AZ36" s="1766" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA36" s="1767"/>
       <c r="BB36" s="1768" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC36" s="1769"/>
       <c r="BD36" s="6005" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE36" s="1771"/>
       <c r="BF36" s="6006" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG36" s="1773"/>
       <c r="BH36" s="1774" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI36" s="1775"/>
       <c r="BJ36" s="1776"/>
       <c r="BK36" s="1777"/>
       <c r="BL36" s="1778" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM36" s="1779"/>
       <c r="BN36" s="1780" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO36" s="1781"/>
       <c r="BP36" s="1782" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ36" s="1783"/>
       <c r="BR36" s="1784" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS36" s="1785"/>
       <c r="BT36" s="1786" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU36" s="1787"/>
       <c r="BV36" s="6007" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW36" s="1789"/>
       <c r="BX36" s="6008" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY36" s="1791"/>
       <c r="BZ36" s="1792" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA36" s="1793"/>
       <c r="CB36" s="1794" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC36" s="1795"/>
       <c r="CD36" s="1796" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE36" s="1797"/>
       <c r="CF36" s="1798" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG36" s="1799"/>
       <c r="CH36" s="1800" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI36" s="1801"/>
       <c r="CJ36" s="6009" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK36" s="1803"/>
       <c r="CL36" s="6010" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM36" s="1805"/>
       <c r="CN36" s="6011" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO36" s="1807"/>
       <c r="CP36" s="1808"/>
       <c r="CQ36" s="1809"/>
       <c r="CR36" s="1810" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS36" s="1811"/>
       <c r="CT36" s="1812"/>
@@ -25666,7 +25666,7 @@
       <c r="AB37" s="1841"/>
       <c r="AC37" s="1842"/>
       <c r="AD37" s="6002" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE37" s="1844"/>
       <c r="AF37" s="1845" t="n">
@@ -25690,11 +25690,11 @@
       </c>
       <c r="AO37" s="1854"/>
       <c r="AP37" s="6003" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ37" s="1856"/>
       <c r="AR37" s="6004" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS37" s="1858"/>
       <c r="AT37" s="1859" t="n">
@@ -25718,11 +25718,11 @@
       </c>
       <c r="BC37" s="1868"/>
       <c r="BD37" s="6005" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE37" s="1870"/>
       <c r="BF37" s="6006" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG37" s="1872"/>
       <c r="BH37" s="1873"/>
@@ -25750,11 +25750,11 @@
       </c>
       <c r="BU37" s="1886"/>
       <c r="BV37" s="6007" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW37" s="1888"/>
       <c r="BX37" s="6008" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY37" s="1890"/>
       <c r="BZ37" s="1891" t="n">
@@ -25782,11 +25782,11 @@
       </c>
       <c r="CK37" s="1902"/>
       <c r="CL37" s="6010" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM37" s="1904"/>
       <c r="CN37" s="6011" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO37" s="1906"/>
       <c r="CP37" s="1907"/>
@@ -25802,7 +25802,7 @@
       </c>
       <c r="B38" s="1914"/>
       <c r="C38" s="1915" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1916"/>
       <c r="E38" s="1917"/>
@@ -25816,19 +25816,19 @@
       <c r="M38" s="1925"/>
       <c r="N38" s="1926"/>
       <c r="O38" s="1927" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P38" s="1928"/>
       <c r="Q38" s="1929"/>
       <c r="R38" s="1930"/>
       <c r="S38" s="1931" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T38" s="1932"/>
       <c r="U38" s="1933"/>
       <c r="V38" s="1934"/>
       <c r="W38" s="1935" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X38" s="1936"/>
       <c r="Y38" s="1937"/>
@@ -25837,135 +25837,135 @@
       <c r="AB38" s="1940"/>
       <c r="AC38" s="1941"/>
       <c r="AD38" s="6012" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE38" s="1943"/>
       <c r="AF38" s="1944" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG38" s="1945"/>
       <c r="AH38" s="1946" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI38" s="1947"/>
       <c r="AJ38" s="1948" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK38" s="1949"/>
       <c r="AL38" s="1950" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM38" s="1951"/>
       <c r="AN38" s="1952" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO38" s="1953"/>
       <c r="AP38" s="6013" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ38" s="1955"/>
       <c r="AR38" s="6014" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS38" s="1957"/>
       <c r="AT38" s="1958" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU38" s="1959"/>
       <c r="AV38" s="1960" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW38" s="1961"/>
       <c r="AX38" s="1962" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY38" s="1963"/>
       <c r="AZ38" s="1964" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA38" s="1965"/>
       <c r="BB38" s="1966" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC38" s="1967"/>
       <c r="BD38" s="6015" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE38" s="1969"/>
       <c r="BF38" s="6016" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG38" s="1971"/>
       <c r="BH38" s="1972" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI38" s="1973"/>
       <c r="BJ38" s="1974"/>
       <c r="BK38" s="1975"/>
       <c r="BL38" s="1976" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM38" s="1977"/>
       <c r="BN38" s="1978" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO38" s="1979"/>
       <c r="BP38" s="1980" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ38" s="1981"/>
       <c r="BR38" s="1982" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS38" s="1983"/>
       <c r="BT38" s="1984" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU38" s="1985"/>
       <c r="BV38" s="6017" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW38" s="1987"/>
       <c r="BX38" s="6018" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY38" s="1989"/>
       <c r="BZ38" s="1990" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA38" s="1991"/>
       <c r="CB38" s="1992" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC38" s="1993"/>
       <c r="CD38" s="1994" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE38" s="1995"/>
       <c r="CF38" s="1996" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG38" s="1997"/>
       <c r="CH38" s="1998" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI38" s="1999"/>
       <c r="CJ38" s="6019" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK38" s="2001"/>
       <c r="CL38" s="6020" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM38" s="2003"/>
       <c r="CN38" s="6021" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO38" s="2005"/>
       <c r="CP38" s="2006"/>
       <c r="CQ38" s="2007"/>
       <c r="CR38" s="2008" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS38" s="2009"/>
       <c r="CT38" s="2010"/>
@@ -26002,7 +26002,7 @@
       <c r="AB39" s="2039"/>
       <c r="AC39" s="2040"/>
       <c r="AD39" s="6012" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE39" s="2042"/>
       <c r="AF39" s="2043" t="n">
@@ -26026,11 +26026,11 @@
       </c>
       <c r="AO39" s="2052"/>
       <c r="AP39" s="6013" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ39" s="2054"/>
       <c r="AR39" s="6014" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS39" s="2056"/>
       <c r="AT39" s="2057" t="n">
@@ -26054,11 +26054,11 @@
       </c>
       <c r="BC39" s="2066"/>
       <c r="BD39" s="6015" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE39" s="2068"/>
       <c r="BF39" s="6016" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG39" s="2070"/>
       <c r="BH39" s="2071"/>
@@ -26086,11 +26086,11 @@
       </c>
       <c r="BU39" s="2084"/>
       <c r="BV39" s="6017" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW39" s="2086"/>
       <c r="BX39" s="6018" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY39" s="2088"/>
       <c r="BZ39" s="2089" t="n">
@@ -26118,11 +26118,11 @@
       </c>
       <c r="CK39" s="2100"/>
       <c r="CL39" s="6020" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM39" s="2102"/>
       <c r="CN39" s="6021" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO39" s="2104"/>
       <c r="CP39" s="2105"/>
@@ -26138,7 +26138,7 @@
       </c>
       <c r="B40" s="2112"/>
       <c r="C40" s="2113" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D40" s="2114"/>
       <c r="E40" s="2115"/>
@@ -26152,19 +26152,19 @@
       <c r="M40" s="2123"/>
       <c r="N40" s="2124"/>
       <c r="O40" s="2125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P40" s="2126"/>
       <c r="Q40" s="2127"/>
       <c r="R40" s="2128"/>
       <c r="S40" s="2129" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T40" s="2130"/>
       <c r="U40" s="2131"/>
       <c r="V40" s="2132"/>
       <c r="W40" s="2133" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="X40" s="2134"/>
       <c r="Y40" s="2135"/>
@@ -26173,135 +26173,135 @@
       <c r="AB40" s="2138"/>
       <c r="AC40" s="2139"/>
       <c r="AD40" s="6022" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE40" s="2141"/>
       <c r="AF40" s="2142" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG40" s="2143"/>
       <c r="AH40" s="2144" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI40" s="2145"/>
       <c r="AJ40" s="2146" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK40" s="2147"/>
       <c r="AL40" s="2148" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM40" s="2149"/>
       <c r="AN40" s="2150" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO40" s="2151"/>
       <c r="AP40" s="6023" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ40" s="2153"/>
       <c r="AR40" s="6024" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS40" s="2155"/>
       <c r="AT40" s="2156" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU40" s="2157"/>
       <c r="AV40" s="2158" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW40" s="2159"/>
       <c r="AX40" s="2160" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY40" s="2161"/>
       <c r="AZ40" s="2162" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA40" s="2163"/>
       <c r="BB40" s="2164" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC40" s="2165"/>
       <c r="BD40" s="6025" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE40" s="2167"/>
       <c r="BF40" s="6026" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG40" s="2169"/>
       <c r="BH40" s="2170" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI40" s="2171"/>
       <c r="BJ40" s="2172"/>
       <c r="BK40" s="2173"/>
       <c r="BL40" s="2174" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM40" s="2175"/>
       <c r="BN40" s="2176" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO40" s="2177"/>
       <c r="BP40" s="2178" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ40" s="2179"/>
       <c r="BR40" s="2180" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS40" s="2181"/>
       <c r="BT40" s="2182" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU40" s="2183"/>
       <c r="BV40" s="6027" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW40" s="2185"/>
       <c r="BX40" s="6028" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY40" s="2187"/>
       <c r="BZ40" s="2188" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA40" s="2189"/>
       <c r="CB40" s="2190" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC40" s="2191"/>
       <c r="CD40" s="2192" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE40" s="2193"/>
       <c r="CF40" s="2194" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG40" s="2195"/>
       <c r="CH40" s="2196" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI40" s="2197"/>
       <c r="CJ40" s="6029" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK40" s="2199"/>
       <c r="CL40" s="6030" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM40" s="2201"/>
       <c r="CN40" s="6031" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO40" s="2203"/>
       <c r="CP40" s="2204"/>
       <c r="CQ40" s="2205"/>
       <c r="CR40" s="2206" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS40" s="2207"/>
       <c r="CT40" s="2208"/>
@@ -26338,7 +26338,7 @@
       <c r="AB41" s="6198"/>
       <c r="AC41" s="6199"/>
       <c r="AD41" s="6200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE41" s="6201"/>
       <c r="AF41" s="6201" t="n">
@@ -26362,11 +26362,11 @@
       </c>
       <c r="AO41" s="6201"/>
       <c r="AP41" s="6200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ41" s="6201"/>
       <c r="AR41" s="6200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS41" s="6201"/>
       <c r="AT41" s="6201" t="n">
@@ -26390,11 +26390,11 @@
       </c>
       <c r="BC41" s="6201"/>
       <c r="BD41" s="6200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE41" s="6201"/>
       <c r="BF41" s="6200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG41" s="6201"/>
       <c r="BH41" s="6202"/>
@@ -26422,11 +26422,11 @@
       </c>
       <c r="BU41" s="6201"/>
       <c r="BV41" s="6200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW41" s="6201"/>
       <c r="BX41" s="6200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY41" s="6201"/>
       <c r="BZ41" s="6201" t="n">
@@ -26454,11 +26454,11 @@
       </c>
       <c r="CK41" s="6201"/>
       <c r="CL41" s="6200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM41" s="6201"/>
       <c r="CN41" s="6200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO41" s="6201"/>
       <c r="CP41" s="6201"/>
@@ -26499,47 +26499,47 @@
       <c r="AB42" s="6205"/>
       <c r="AC42" s="6205"/>
       <c r="AD42" s="6205" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AE42" s="6205"/>
       <c r="AF42" s="6205" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG42" s="6205"/>
       <c r="AH42" s="6205" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AI42" s="6205"/>
       <c r="AJ42" s="6205" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK42" s="6205"/>
       <c r="AL42" s="6205" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AM42" s="6205"/>
       <c r="AN42" s="6205" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AO42" s="6205"/>
       <c r="AP42" s="6205" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AQ42" s="6205"/>
       <c r="AR42" s="6205" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AS42" s="6205"/>
       <c r="AT42" s="6205" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AU42" s="6205"/>
       <c r="AV42" s="6205" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AW42" s="6205"/>
       <c r="AX42" s="6205" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AY42" s="6205"/>
       <c r="AZ42" s="6205" t="s">
@@ -26547,15 +26547,15 @@
       </c>
       <c r="BA42" s="6205"/>
       <c r="BB42" s="6205" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BC42" s="6205"/>
       <c r="BD42" s="6205" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BE42" s="6205"/>
       <c r="BF42" s="6205" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BG42" s="6205"/>
       <c r="BH42" s="6205"/>
@@ -26563,11 +26563,11 @@
       <c r="BJ42" s="6205"/>
       <c r="BK42" s="6205"/>
       <c r="BL42" s="6205" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BM42" s="6205"/>
       <c r="BN42" s="6205" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BO42" s="6205"/>
       <c r="BP42" s="6205" t="s">
@@ -26575,7 +26575,7 @@
       </c>
       <c r="BQ42" s="6205"/>
       <c r="BR42" s="6205" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BS42" s="6205"/>
       <c r="BT42" s="6205" t="s">
@@ -26583,31 +26583,31 @@
       </c>
       <c r="BU42" s="6205"/>
       <c r="BV42" s="6205" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BW42" s="6205"/>
       <c r="BX42" s="6205" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BY42" s="6205"/>
       <c r="BZ42" s="6205" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="CA42" s="6205"/>
       <c r="CB42" s="6205" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="CC42" s="6205"/>
       <c r="CD42" s="6205" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CE42" s="6205"/>
       <c r="CF42" s="6205" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CG42" s="6205"/>
       <c r="CH42" s="6205" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="CI42" s="6205"/>
       <c r="CJ42" s="6205" t="s">
@@ -26615,7 +26615,7 @@
       </c>
       <c r="CK42" s="6205"/>
       <c r="CL42" s="6205" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CM42" s="6205"/>
       <c r="CN42" s="6205" t="s">
@@ -26635,7 +26635,7 @@
       </c>
       <c r="B43" s="2310"/>
       <c r="C43" s="2311" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D43" s="2312"/>
       <c r="E43" s="2313"/>
@@ -26649,19 +26649,19 @@
       <c r="M43" s="2321"/>
       <c r="N43" s="2322"/>
       <c r="O43" s="2323" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P43" s="2324"/>
       <c r="Q43" s="2325"/>
       <c r="R43" s="2326"/>
       <c r="S43" s="2327" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T43" s="2328"/>
       <c r="U43" s="2329"/>
       <c r="V43" s="2330"/>
       <c r="W43" s="2331" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X43" s="2332"/>
       <c r="Y43" s="2333"/>
@@ -26670,135 +26670,135 @@
       <c r="AB43" s="2336"/>
       <c r="AC43" s="2337"/>
       <c r="AD43" s="6032" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE43" s="2339"/>
       <c r="AF43" s="2340" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG43" s="2341"/>
       <c r="AH43" s="2342" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI43" s="2343"/>
       <c r="AJ43" s="2344" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK43" s="2345"/>
       <c r="AL43" s="2346" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM43" s="2347"/>
       <c r="AN43" s="2348" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO43" s="2349"/>
       <c r="AP43" s="6033" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ43" s="2351"/>
       <c r="AR43" s="6034" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS43" s="2353"/>
       <c r="AT43" s="2354" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU43" s="2355"/>
       <c r="AV43" s="2356" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW43" s="2357"/>
       <c r="AX43" s="2358" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY43" s="2359"/>
       <c r="AZ43" s="2360" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA43" s="2361"/>
       <c r="BB43" s="2362" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC43" s="2363"/>
       <c r="BD43" s="6035" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE43" s="2365"/>
       <c r="BF43" s="6036" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG43" s="2367"/>
       <c r="BH43" s="2368" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI43" s="2369"/>
       <c r="BJ43" s="2370"/>
       <c r="BK43" s="2371"/>
       <c r="BL43" s="2372" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM43" s="2373"/>
       <c r="BN43" s="2374" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO43" s="2375"/>
       <c r="BP43" s="2376" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ43" s="2377"/>
       <c r="BR43" s="2378" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS43" s="2379"/>
       <c r="BT43" s="2380" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU43" s="2381"/>
       <c r="BV43" s="6037" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW43" s="2383"/>
       <c r="BX43" s="6038" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY43" s="2385"/>
       <c r="BZ43" s="2386" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA43" s="2387"/>
       <c r="CB43" s="2388" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC43" s="2389"/>
       <c r="CD43" s="2390" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE43" s="2391"/>
       <c r="CF43" s="2392" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG43" s="2393"/>
       <c r="CH43" s="2394" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI43" s="2395"/>
       <c r="CJ43" s="6039" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK43" s="2397"/>
       <c r="CL43" s="6040" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM43" s="2399"/>
       <c r="CN43" s="6041" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO43" s="2401"/>
       <c r="CP43" s="2402"/>
       <c r="CQ43" s="2403"/>
       <c r="CR43" s="2404" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS43" s="2405"/>
       <c r="CT43" s="2406"/>
@@ -26835,7 +26835,7 @@
       <c r="AB44" s="2435"/>
       <c r="AC44" s="2436"/>
       <c r="AD44" s="6032" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE44" s="2438"/>
       <c r="AF44" s="2439" t="n">
@@ -26859,11 +26859,11 @@
       </c>
       <c r="AO44" s="2448"/>
       <c r="AP44" s="6033" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ44" s="2450"/>
       <c r="AR44" s="6034" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS44" s="2452"/>
       <c r="AT44" s="2453" t="n">
@@ -26887,11 +26887,11 @@
       </c>
       <c r="BC44" s="2462"/>
       <c r="BD44" s="6035" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE44" s="2464"/>
       <c r="BF44" s="6036" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG44" s="2466"/>
       <c r="BH44" s="2467"/>
@@ -26919,11 +26919,11 @@
       </c>
       <c r="BU44" s="2480"/>
       <c r="BV44" s="6037" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW44" s="2482"/>
       <c r="BX44" s="6038" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY44" s="2484"/>
       <c r="BZ44" s="2485" t="n">
@@ -26951,11 +26951,11 @@
       </c>
       <c r="CK44" s="2496"/>
       <c r="CL44" s="6040" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM44" s="2498"/>
       <c r="CN44" s="6041" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO44" s="2500"/>
       <c r="CP44" s="2501"/>
@@ -26985,7 +26985,7 @@
       <c r="M45" s="2519"/>
       <c r="N45" s="2520"/>
       <c r="O45" s="2521" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P45" s="2522"/>
       <c r="Q45" s="2523"/>
@@ -26997,7 +26997,7 @@
       <c r="U45" s="2527"/>
       <c r="V45" s="2528"/>
       <c r="W45" s="2529" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X45" s="2530"/>
       <c r="Y45" s="2531"/>
@@ -27006,135 +27006,135 @@
       <c r="AB45" s="2534"/>
       <c r="AC45" s="2535"/>
       <c r="AD45" s="6043" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE45" s="2537"/>
       <c r="AF45" s="2538" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG45" s="2539"/>
       <c r="AH45" s="2540" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI45" s="2541"/>
       <c r="AJ45" s="2542" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK45" s="2543"/>
       <c r="AL45" s="2544" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM45" s="2545"/>
       <c r="AN45" s="2546" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO45" s="2547"/>
       <c r="AP45" s="6044" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ45" s="2549"/>
       <c r="AR45" s="6045" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS45" s="2551"/>
       <c r="AT45" s="2552" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU45" s="2553"/>
       <c r="AV45" s="2554" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW45" s="2555"/>
       <c r="AX45" s="2556" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY45" s="2557"/>
       <c r="AZ45" s="2558" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA45" s="2559"/>
       <c r="BB45" s="2560" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC45" s="2561"/>
       <c r="BD45" s="6046" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE45" s="2563"/>
       <c r="BF45" s="6047" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG45" s="2565"/>
       <c r="BH45" s="2566" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI45" s="2567"/>
       <c r="BJ45" s="2568"/>
       <c r="BK45" s="2569"/>
       <c r="BL45" s="2570" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM45" s="2571"/>
       <c r="BN45" s="2572" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO45" s="2573"/>
       <c r="BP45" s="2574" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ45" s="2575"/>
       <c r="BR45" s="2576" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS45" s="2577"/>
       <c r="BT45" s="2578" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU45" s="2579"/>
       <c r="BV45" s="6048" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW45" s="2581"/>
       <c r="BX45" s="6049" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY45" s="2583"/>
       <c r="BZ45" s="2584" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA45" s="2585"/>
       <c r="CB45" s="2586" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC45" s="2587"/>
       <c r="CD45" s="2588" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE45" s="2589"/>
       <c r="CF45" s="2590" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG45" s="2591"/>
       <c r="CH45" s="2592" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI45" s="2593"/>
       <c r="CJ45" s="6050" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK45" s="2595"/>
       <c r="CL45" s="6051" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM45" s="2597"/>
       <c r="CN45" s="6052" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO45" s="2599"/>
       <c r="CP45" s="2600"/>
       <c r="CQ45" s="2601"/>
       <c r="CR45" s="2602" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS45" s="2603"/>
       <c r="CT45" s="2604"/>
@@ -27171,7 +27171,7 @@
       <c r="AB46" s="2633"/>
       <c r="AC46" s="2634"/>
       <c r="AD46" s="6043" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE46" s="2636"/>
       <c r="AF46" s="2637" t="n">
@@ -27195,11 +27195,11 @@
       </c>
       <c r="AO46" s="2646"/>
       <c r="AP46" s="6044" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ46" s="2648"/>
       <c r="AR46" s="6045" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS46" s="2650"/>
       <c r="AT46" s="2651" t="n">
@@ -27223,11 +27223,11 @@
       </c>
       <c r="BC46" s="2660"/>
       <c r="BD46" s="6046" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE46" s="2662"/>
       <c r="BF46" s="6047" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG46" s="2664"/>
       <c r="BH46" s="2665"/>
@@ -27255,11 +27255,11 @@
       </c>
       <c r="BU46" s="2678"/>
       <c r="BV46" s="6048" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW46" s="2680"/>
       <c r="BX46" s="6049" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY46" s="2682"/>
       <c r="BZ46" s="2683" t="n">
@@ -27287,11 +27287,11 @@
       </c>
       <c r="CK46" s="2694"/>
       <c r="CL46" s="6051" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM46" s="2696"/>
       <c r="CN46" s="6052" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO46" s="2698"/>
       <c r="CP46" s="2699"/>
@@ -27321,7 +27321,7 @@
       <c r="M47" s="2717"/>
       <c r="N47" s="2718"/>
       <c r="O47" s="2719" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P47" s="2720"/>
       <c r="Q47" s="2721"/>
@@ -27333,7 +27333,7 @@
       <c r="U47" s="2725"/>
       <c r="V47" s="2726"/>
       <c r="W47" s="2727" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X47" s="2728"/>
       <c r="Y47" s="2729"/>
@@ -27342,19 +27342,19 @@
       <c r="AB47" s="2732"/>
       <c r="AC47" s="2733"/>
       <c r="AD47" s="6053" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE47" s="2735"/>
       <c r="AF47" s="2736" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG47" s="2737"/>
       <c r="AH47" s="2738" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI47" s="2739"/>
       <c r="AJ47" s="2740" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK47" s="2741"/>
       <c r="AL47" s="2742"/>
@@ -27455,7 +27455,7 @@
       <c r="AB48" s="2831"/>
       <c r="AC48" s="2832"/>
       <c r="AD48" s="6053" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE48" s="2834"/>
       <c r="AF48" s="2835" t="n">
@@ -27553,7 +27553,7 @@
       <c r="M49" s="2915"/>
       <c r="N49" s="2916"/>
       <c r="O49" s="2917" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P49" s="2918"/>
       <c r="Q49" s="2919"/>
@@ -27565,7 +27565,7 @@
       <c r="U49" s="2923"/>
       <c r="V49" s="2924"/>
       <c r="W49" s="2925" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X49" s="2926"/>
       <c r="Y49" s="2927"/>
@@ -27574,135 +27574,135 @@
       <c r="AB49" s="2930"/>
       <c r="AC49" s="2931"/>
       <c r="AD49" s="6054" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE49" s="2933"/>
       <c r="AF49" s="2934" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG49" s="2935"/>
       <c r="AH49" s="2936" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI49" s="2937"/>
       <c r="AJ49" s="2938" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK49" s="2939"/>
       <c r="AL49" s="2940" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM49" s="2941"/>
       <c r="AN49" s="2942" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO49" s="2943"/>
       <c r="AP49" s="6055" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ49" s="2945"/>
       <c r="AR49" s="6056" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS49" s="2947"/>
       <c r="AT49" s="2948" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU49" s="2949"/>
       <c r="AV49" s="2950" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW49" s="2951"/>
       <c r="AX49" s="2952" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY49" s="2953"/>
       <c r="AZ49" s="2954" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA49" s="2955"/>
       <c r="BB49" s="2956" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC49" s="2957"/>
       <c r="BD49" s="6057" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE49" s="2959"/>
       <c r="BF49" s="6058" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG49" s="2961"/>
       <c r="BH49" s="2962" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI49" s="2963"/>
       <c r="BJ49" s="2964"/>
       <c r="BK49" s="2965"/>
       <c r="BL49" s="2966" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM49" s="2967"/>
       <c r="BN49" s="2968" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO49" s="2969"/>
       <c r="BP49" s="2970" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ49" s="2971"/>
       <c r="BR49" s="2972" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS49" s="2973"/>
       <c r="BT49" s="2974" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU49" s="2975"/>
       <c r="BV49" s="6059" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW49" s="2977"/>
       <c r="BX49" s="6060" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY49" s="2979"/>
       <c r="BZ49" s="2980" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA49" s="2981"/>
       <c r="CB49" s="2982" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC49" s="2983"/>
       <c r="CD49" s="2984" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE49" s="2985"/>
       <c r="CF49" s="2986" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG49" s="2987"/>
       <c r="CH49" s="2988" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI49" s="2989"/>
       <c r="CJ49" s="6061" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK49" s="2991"/>
       <c r="CL49" s="6062" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM49" s="2993"/>
       <c r="CN49" s="6063" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO49" s="2995"/>
       <c r="CP49" s="2996"/>
       <c r="CQ49" s="2997"/>
       <c r="CR49" s="2998" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS49" s="2999"/>
       <c r="CT49" s="3000"/>
@@ -27739,7 +27739,7 @@
       <c r="AB50" s="3029"/>
       <c r="AC50" s="3030"/>
       <c r="AD50" s="6054" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE50" s="3032"/>
       <c r="AF50" s="3033" t="n">
@@ -27763,11 +27763,11 @@
       </c>
       <c r="AO50" s="3042"/>
       <c r="AP50" s="6055" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ50" s="3044"/>
       <c r="AR50" s="6056" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS50" s="3046"/>
       <c r="AT50" s="3047" t="n">
@@ -27791,11 +27791,11 @@
       </c>
       <c r="BC50" s="3056"/>
       <c r="BD50" s="6057" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE50" s="3058"/>
       <c r="BF50" s="6058" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG50" s="3060"/>
       <c r="BH50" s="3061"/>
@@ -27823,11 +27823,11 @@
       </c>
       <c r="BU50" s="3074"/>
       <c r="BV50" s="6059" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW50" s="3076"/>
       <c r="BX50" s="6060" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY50" s="3078"/>
       <c r="BZ50" s="3079" t="n">
@@ -27855,11 +27855,11 @@
       </c>
       <c r="CK50" s="3090"/>
       <c r="CL50" s="6062" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM50" s="3092"/>
       <c r="CN50" s="6063" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO50" s="3094"/>
       <c r="CP50" s="3095"/>
@@ -27889,7 +27889,7 @@
       <c r="M51" s="3113"/>
       <c r="N51" s="3114"/>
       <c r="O51" s="3115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P51" s="3116"/>
       <c r="Q51" s="3117"/>
@@ -27910,135 +27910,135 @@
       <c r="AB51" s="3128"/>
       <c r="AC51" s="3129"/>
       <c r="AD51" s="6064" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE51" s="3131"/>
       <c r="AF51" s="3132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG51" s="3133"/>
       <c r="AH51" s="3134" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI51" s="3135"/>
       <c r="AJ51" s="3136" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK51" s="3137"/>
       <c r="AL51" s="3138" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM51" s="3139"/>
       <c r="AN51" s="3140" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO51" s="3141"/>
       <c r="AP51" s="6065" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ51" s="3143"/>
       <c r="AR51" s="6066" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS51" s="3145"/>
       <c r="AT51" s="3146" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU51" s="3147"/>
       <c r="AV51" s="3148" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW51" s="3149"/>
       <c r="AX51" s="3150" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY51" s="3151"/>
       <c r="AZ51" s="3152" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA51" s="3153"/>
       <c r="BB51" s="3154" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC51" s="3155"/>
       <c r="BD51" s="6067" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE51" s="3157"/>
       <c r="BF51" s="6068" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG51" s="3159"/>
       <c r="BH51" s="3160" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI51" s="3161"/>
       <c r="BJ51" s="3162"/>
       <c r="BK51" s="3163"/>
       <c r="BL51" s="3164" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM51" s="3165"/>
       <c r="BN51" s="3166" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO51" s="3167"/>
       <c r="BP51" s="3168" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ51" s="3169"/>
       <c r="BR51" s="3170" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS51" s="3171"/>
       <c r="BT51" s="3172" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU51" s="3173"/>
       <c r="BV51" s="6069" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW51" s="3175"/>
       <c r="BX51" s="6070" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY51" s="3177"/>
       <c r="BZ51" s="3178" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA51" s="3179"/>
       <c r="CB51" s="3180" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC51" s="3181"/>
       <c r="CD51" s="3182" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE51" s="3183"/>
       <c r="CF51" s="3184" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG51" s="3185"/>
       <c r="CH51" s="3186" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI51" s="3187"/>
       <c r="CJ51" s="6071" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK51" s="3189"/>
       <c r="CL51" s="6072" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM51" s="3191"/>
       <c r="CN51" s="6073" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO51" s="3193"/>
       <c r="CP51" s="3194"/>
       <c r="CQ51" s="3195"/>
       <c r="CR51" s="3196" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS51" s="3197"/>
       <c r="CT51" s="3198"/>
@@ -28075,7 +28075,7 @@
       <c r="AB52" s="3227"/>
       <c r="AC52" s="3228"/>
       <c r="AD52" s="6064" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE52" s="3230"/>
       <c r="AF52" s="3231" t="n">
@@ -28099,11 +28099,11 @@
       </c>
       <c r="AO52" s="3240"/>
       <c r="AP52" s="6065" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ52" s="3242"/>
       <c r="AR52" s="6066" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS52" s="3244"/>
       <c r="AT52" s="3245" t="n">
@@ -28127,11 +28127,11 @@
       </c>
       <c r="BC52" s="3254"/>
       <c r="BD52" s="6067" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE52" s="3256"/>
       <c r="BF52" s="6068" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG52" s="3258"/>
       <c r="BH52" s="3259"/>
@@ -28159,11 +28159,11 @@
       </c>
       <c r="BU52" s="3272"/>
       <c r="BV52" s="6069" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW52" s="3274"/>
       <c r="BX52" s="6070" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY52" s="3276"/>
       <c r="BZ52" s="3277" t="n">
@@ -28191,11 +28191,11 @@
       </c>
       <c r="CK52" s="3288"/>
       <c r="CL52" s="6072" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM52" s="3290"/>
       <c r="CN52" s="6073" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO52" s="3292"/>
       <c r="CP52" s="3293"/>
@@ -28225,7 +28225,7 @@
       <c r="M53" s="3311"/>
       <c r="N53" s="3312"/>
       <c r="O53" s="3313" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P53" s="3314"/>
       <c r="Q53" s="3315"/>
@@ -28246,135 +28246,135 @@
       <c r="AB53" s="3326"/>
       <c r="AC53" s="3327"/>
       <c r="AD53" s="6074" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE53" s="3329"/>
       <c r="AF53" s="3330" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG53" s="3331"/>
       <c r="AH53" s="3332" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI53" s="3333"/>
       <c r="AJ53" s="3334" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK53" s="3335"/>
       <c r="AL53" s="3336" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM53" s="3337"/>
       <c r="AN53" s="3338" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO53" s="3339"/>
       <c r="AP53" s="6075" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ53" s="3341"/>
       <c r="AR53" s="6076" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS53" s="3343"/>
       <c r="AT53" s="3344" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU53" s="3345"/>
       <c r="AV53" s="3346" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW53" s="3347"/>
       <c r="AX53" s="3348" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY53" s="3349"/>
       <c r="AZ53" s="3350" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA53" s="3351"/>
       <c r="BB53" s="3352" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC53" s="3353"/>
       <c r="BD53" s="6077" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE53" s="3355"/>
       <c r="BF53" s="6078" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG53" s="3357"/>
       <c r="BH53" s="3358" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI53" s="3359"/>
       <c r="BJ53" s="3360"/>
       <c r="BK53" s="3361"/>
       <c r="BL53" s="3362" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM53" s="3363"/>
       <c r="BN53" s="3364" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO53" s="3365"/>
       <c r="BP53" s="3366" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ53" s="3367"/>
       <c r="BR53" s="3368" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS53" s="3369"/>
       <c r="BT53" s="3370" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU53" s="3371"/>
       <c r="BV53" s="6079" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW53" s="3373"/>
       <c r="BX53" s="6080" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY53" s="3375"/>
       <c r="BZ53" s="3376" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA53" s="3377"/>
       <c r="CB53" s="3378" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC53" s="3379"/>
       <c r="CD53" s="3380" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE53" s="3381"/>
       <c r="CF53" s="3382" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG53" s="3383"/>
       <c r="CH53" s="3384" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI53" s="3385"/>
       <c r="CJ53" s="6081" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK53" s="3387"/>
       <c r="CL53" s="6082" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM53" s="3389"/>
       <c r="CN53" s="6083" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO53" s="3391"/>
       <c r="CP53" s="3392"/>
       <c r="CQ53" s="3393"/>
       <c r="CR53" s="3394" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS53" s="3395"/>
       <c r="CT53" s="3396"/>
@@ -28411,7 +28411,7 @@
       <c r="AB54" s="3425"/>
       <c r="AC54" s="3426"/>
       <c r="AD54" s="6074" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE54" s="3428"/>
       <c r="AF54" s="3429" t="n">
@@ -28435,11 +28435,11 @@
       </c>
       <c r="AO54" s="3438"/>
       <c r="AP54" s="6075" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ54" s="3440"/>
       <c r="AR54" s="6076" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS54" s="3442"/>
       <c r="AT54" s="3443" t="n">
@@ -28463,11 +28463,11 @@
       </c>
       <c r="BC54" s="3452"/>
       <c r="BD54" s="6077" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE54" s="3454"/>
       <c r="BF54" s="6078" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG54" s="3456"/>
       <c r="BH54" s="3457"/>
@@ -28495,11 +28495,11 @@
       </c>
       <c r="BU54" s="3470"/>
       <c r="BV54" s="6079" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW54" s="3472"/>
       <c r="BX54" s="6080" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY54" s="3474"/>
       <c r="BZ54" s="3475" t="n">
@@ -28527,11 +28527,11 @@
       </c>
       <c r="CK54" s="3486"/>
       <c r="CL54" s="6082" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM54" s="3488"/>
       <c r="CN54" s="6083" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO54" s="3490"/>
       <c r="CP54" s="3491"/>
@@ -28561,7 +28561,7 @@
       <c r="M55" s="3509"/>
       <c r="N55" s="3510"/>
       <c r="O55" s="3511" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P55" s="3512"/>
       <c r="Q55" s="3513"/>
@@ -28573,7 +28573,7 @@
       <c r="U55" s="3517"/>
       <c r="V55" s="3518"/>
       <c r="W55" s="3519" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X55" s="3520"/>
       <c r="Y55" s="3521"/>
@@ -28582,135 +28582,135 @@
       <c r="AB55" s="3524"/>
       <c r="AC55" s="3525"/>
       <c r="AD55" s="6084" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE55" s="3527"/>
       <c r="AF55" s="3528" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG55" s="3529"/>
       <c r="AH55" s="3530" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI55" s="3531"/>
       <c r="AJ55" s="3532" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK55" s="3533"/>
       <c r="AL55" s="3534" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM55" s="3535"/>
       <c r="AN55" s="3536" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO55" s="3537"/>
       <c r="AP55" s="6085" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ55" s="3539"/>
       <c r="AR55" s="6086" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS55" s="3541"/>
       <c r="AT55" s="3542" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU55" s="3543"/>
       <c r="AV55" s="3544" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW55" s="3545"/>
       <c r="AX55" s="3546" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY55" s="3547"/>
       <c r="AZ55" s="3548" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA55" s="3549"/>
       <c r="BB55" s="3550" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC55" s="3551"/>
       <c r="BD55" s="6087" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE55" s="3553"/>
       <c r="BF55" s="6088" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG55" s="3555"/>
       <c r="BH55" s="3556" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI55" s="3557"/>
       <c r="BJ55" s="3558"/>
       <c r="BK55" s="3559"/>
       <c r="BL55" s="3560" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM55" s="3561"/>
       <c r="BN55" s="3562" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO55" s="3563"/>
       <c r="BP55" s="3564" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ55" s="3565"/>
       <c r="BR55" s="3566" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS55" s="3567"/>
       <c r="BT55" s="3568" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU55" s="3569"/>
       <c r="BV55" s="6089" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW55" s="3571"/>
       <c r="BX55" s="6090" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY55" s="3573"/>
       <c r="BZ55" s="3574" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA55" s="3575"/>
       <c r="CB55" s="3576" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC55" s="3577"/>
       <c r="CD55" s="3578" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE55" s="3579"/>
       <c r="CF55" s="3580" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG55" s="3581"/>
       <c r="CH55" s="3582" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI55" s="3583"/>
       <c r="CJ55" s="6091" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK55" s="3585"/>
       <c r="CL55" s="6092" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM55" s="3587"/>
       <c r="CN55" s="6093" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO55" s="3589"/>
       <c r="CP55" s="3590"/>
       <c r="CQ55" s="3591"/>
       <c r="CR55" s="3592" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS55" s="3593"/>
       <c r="CT55" s="3594"/>
@@ -28747,7 +28747,7 @@
       <c r="AB56" s="3623"/>
       <c r="AC56" s="3624"/>
       <c r="AD56" s="6084" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE56" s="3626"/>
       <c r="AF56" s="3627" t="n">
@@ -28771,11 +28771,11 @@
       </c>
       <c r="AO56" s="3636"/>
       <c r="AP56" s="6085" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ56" s="3638"/>
       <c r="AR56" s="6086" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS56" s="3640"/>
       <c r="AT56" s="3641" t="n">
@@ -28799,11 +28799,11 @@
       </c>
       <c r="BC56" s="3650"/>
       <c r="BD56" s="6087" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE56" s="3652"/>
       <c r="BF56" s="6088" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG56" s="3654"/>
       <c r="BH56" s="3655"/>
@@ -28831,11 +28831,11 @@
       </c>
       <c r="BU56" s="3668"/>
       <c r="BV56" s="6089" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW56" s="3670"/>
       <c r="BX56" s="6090" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY56" s="3672"/>
       <c r="BZ56" s="3673" t="n">
@@ -28863,11 +28863,11 @@
       </c>
       <c r="CK56" s="3684"/>
       <c r="CL56" s="6092" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM56" s="3686"/>
       <c r="CN56" s="6093" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO56" s="3688"/>
       <c r="CP56" s="3689"/>
@@ -28897,7 +28897,7 @@
       <c r="M57" s="3707"/>
       <c r="N57" s="3708"/>
       <c r="O57" s="3709" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P57" s="3710"/>
       <c r="Q57" s="3711"/>
@@ -28909,7 +28909,7 @@
       <c r="U57" s="3715"/>
       <c r="V57" s="3716"/>
       <c r="W57" s="3717" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X57" s="3718"/>
       <c r="Y57" s="3719"/>
@@ -28918,19 +28918,19 @@
       <c r="AB57" s="3722"/>
       <c r="AC57" s="3723"/>
       <c r="AD57" s="6094" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE57" s="3725"/>
       <c r="AF57" s="3726" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG57" s="3727"/>
       <c r="AH57" s="3728" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI57" s="3729"/>
       <c r="AJ57" s="3730" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK57" s="3731"/>
       <c r="AL57" s="3732"/>
@@ -29031,7 +29031,7 @@
       <c r="AB58" s="3821"/>
       <c r="AC58" s="3822"/>
       <c r="AD58" s="6094" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE58" s="3824"/>
       <c r="AF58" s="3825" t="n">
@@ -29129,7 +29129,7 @@
       <c r="M59" s="3905"/>
       <c r="N59" s="3906"/>
       <c r="O59" s="3907" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P59" s="3908"/>
       <c r="Q59" s="3909"/>
@@ -29141,7 +29141,7 @@
       <c r="U59" s="3913"/>
       <c r="V59" s="3914"/>
       <c r="W59" s="3915" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="X59" s="3916"/>
       <c r="Y59" s="3917"/>
@@ -29150,135 +29150,135 @@
       <c r="AB59" s="3920"/>
       <c r="AC59" s="3921"/>
       <c r="AD59" s="6095" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE59" s="3923"/>
       <c r="AF59" s="3924" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG59" s="3925"/>
       <c r="AH59" s="3926" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI59" s="3927"/>
       <c r="AJ59" s="3928" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK59" s="3929"/>
       <c r="AL59" s="3930" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM59" s="3931"/>
       <c r="AN59" s="3932" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO59" s="3933"/>
       <c r="AP59" s="6096" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ59" s="3935"/>
       <c r="AR59" s="6097" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS59" s="3937"/>
       <c r="AT59" s="3938" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU59" s="3939"/>
       <c r="AV59" s="3940" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW59" s="3941"/>
       <c r="AX59" s="3942" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY59" s="3943"/>
       <c r="AZ59" s="3944" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA59" s="3945"/>
       <c r="BB59" s="3946" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC59" s="3947"/>
       <c r="BD59" s="6098" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE59" s="3949"/>
       <c r="BF59" s="6099" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG59" s="3951"/>
       <c r="BH59" s="3952" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI59" s="3953"/>
       <c r="BJ59" s="3954"/>
       <c r="BK59" s="3955"/>
       <c r="BL59" s="3956" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM59" s="3957"/>
       <c r="BN59" s="3958" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO59" s="3959"/>
       <c r="BP59" s="3960" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ59" s="3961"/>
       <c r="BR59" s="3962" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS59" s="3963"/>
       <c r="BT59" s="3964" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU59" s="3965"/>
       <c r="BV59" s="6100" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW59" s="3967"/>
       <c r="BX59" s="6101" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY59" s="3969"/>
       <c r="BZ59" s="3970" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA59" s="3971"/>
       <c r="CB59" s="3972" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC59" s="3973"/>
       <c r="CD59" s="3974" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE59" s="3975"/>
       <c r="CF59" s="3976" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG59" s="3977"/>
       <c r="CH59" s="3978" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI59" s="3979"/>
       <c r="CJ59" s="6102" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK59" s="3981"/>
       <c r="CL59" s="6103" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM59" s="3983"/>
       <c r="CN59" s="6104" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO59" s="3985"/>
       <c r="CP59" s="3986"/>
       <c r="CQ59" s="3987"/>
       <c r="CR59" s="3988" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS59" s="3989"/>
       <c r="CT59" s="3990"/>
@@ -29315,7 +29315,7 @@
       <c r="AB60" s="4019"/>
       <c r="AC60" s="4020"/>
       <c r="AD60" s="6095" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE60" s="4022"/>
       <c r="AF60" s="4023" t="n">
@@ -29339,11 +29339,11 @@
       </c>
       <c r="AO60" s="4032"/>
       <c r="AP60" s="6096" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ60" s="4034"/>
       <c r="AR60" s="6097" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS60" s="4036"/>
       <c r="AT60" s="4037" t="n">
@@ -29367,11 +29367,11 @@
       </c>
       <c r="BC60" s="4046"/>
       <c r="BD60" s="6098" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE60" s="4048"/>
       <c r="BF60" s="6099" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG60" s="4050"/>
       <c r="BH60" s="4051"/>
@@ -29399,11 +29399,11 @@
       </c>
       <c r="BU60" s="4064"/>
       <c r="BV60" s="6100" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW60" s="4066"/>
       <c r="BX60" s="6101" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY60" s="4068"/>
       <c r="BZ60" s="4069" t="n">
@@ -29431,11 +29431,11 @@
       </c>
       <c r="CK60" s="4080"/>
       <c r="CL60" s="6103" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM60" s="4082"/>
       <c r="CN60" s="6104" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO60" s="4084"/>
       <c r="CP60" s="4085"/>
@@ -29465,7 +29465,7 @@
       <c r="M61" s="4103"/>
       <c r="N61" s="4104"/>
       <c r="O61" s="4105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P61" s="4106"/>
       <c r="Q61" s="4107"/>
@@ -29477,7 +29477,7 @@
       <c r="U61" s="4111"/>
       <c r="V61" s="4112"/>
       <c r="W61" s="4113" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X61" s="4114"/>
       <c r="Y61" s="4115"/>
@@ -29486,135 +29486,135 @@
       <c r="AB61" s="4118"/>
       <c r="AC61" s="4119"/>
       <c r="AD61" s="6105" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE61" s="4121"/>
       <c r="AF61" s="4122" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG61" s="4123"/>
       <c r="AH61" s="4124" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI61" s="4125"/>
       <c r="AJ61" s="4126" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK61" s="4127"/>
       <c r="AL61" s="4128" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM61" s="4129"/>
       <c r="AN61" s="4130" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO61" s="4131"/>
       <c r="AP61" s="6106" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ61" s="4133"/>
       <c r="AR61" s="6107" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS61" s="4135"/>
       <c r="AT61" s="4136" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU61" s="4137"/>
       <c r="AV61" s="4138" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW61" s="4139"/>
       <c r="AX61" s="4140" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY61" s="4141"/>
       <c r="AZ61" s="4142" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA61" s="4143"/>
       <c r="BB61" s="4144" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC61" s="4145"/>
       <c r="BD61" s="6108" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE61" s="4147"/>
       <c r="BF61" s="6109" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG61" s="4149"/>
       <c r="BH61" s="4150" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI61" s="4151"/>
       <c r="BJ61" s="4152"/>
       <c r="BK61" s="4153"/>
       <c r="BL61" s="4154" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM61" s="4155"/>
       <c r="BN61" s="4156" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO61" s="4157"/>
       <c r="BP61" s="4158" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ61" s="4159"/>
       <c r="BR61" s="4160" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS61" s="4161"/>
       <c r="BT61" s="4162" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU61" s="4163"/>
       <c r="BV61" s="6110" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW61" s="4165"/>
       <c r="BX61" s="6111" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY61" s="4167"/>
       <c r="BZ61" s="4168" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA61" s="4169"/>
       <c r="CB61" s="4170" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC61" s="4171"/>
       <c r="CD61" s="4172" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE61" s="4173"/>
       <c r="CF61" s="4174" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG61" s="4175"/>
       <c r="CH61" s="4176" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI61" s="4177"/>
       <c r="CJ61" s="6112" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK61" s="4179"/>
       <c r="CL61" s="6113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM61" s="4181"/>
       <c r="CN61" s="6114" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO61" s="4183"/>
       <c r="CP61" s="4184"/>
       <c r="CQ61" s="4185"/>
       <c r="CR61" s="4186" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS61" s="4187"/>
       <c r="CT61" s="4188"/>
@@ -29651,7 +29651,7 @@
       <c r="AB62" s="4217"/>
       <c r="AC62" s="4218"/>
       <c r="AD62" s="6105" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE62" s="4220"/>
       <c r="AF62" s="4221" t="n">
@@ -29675,11 +29675,11 @@
       </c>
       <c r="AO62" s="4230"/>
       <c r="AP62" s="6106" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ62" s="4232"/>
       <c r="AR62" s="6107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS62" s="4234"/>
       <c r="AT62" s="4235" t="n">
@@ -29703,11 +29703,11 @@
       </c>
       <c r="BC62" s="4244"/>
       <c r="BD62" s="6108" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE62" s="4246"/>
       <c r="BF62" s="6109" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG62" s="4248"/>
       <c r="BH62" s="4249"/>
@@ -29735,11 +29735,11 @@
       </c>
       <c r="BU62" s="4262"/>
       <c r="BV62" s="6110" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW62" s="4264"/>
       <c r="BX62" s="6111" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY62" s="4266"/>
       <c r="BZ62" s="4267" t="n">
@@ -29767,11 +29767,11 @@
       </c>
       <c r="CK62" s="4278"/>
       <c r="CL62" s="6113" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM62" s="4280"/>
       <c r="CN62" s="6114" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO62" s="4282"/>
       <c r="CP62" s="4283"/>
@@ -29801,7 +29801,7 @@
       <c r="M63" s="4301"/>
       <c r="N63" s="4302"/>
       <c r="O63" s="4303" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P63" s="4304"/>
       <c r="Q63" s="4305"/>
@@ -29813,7 +29813,7 @@
       <c r="U63" s="4309"/>
       <c r="V63" s="4310"/>
       <c r="W63" s="4311" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X63" s="4312"/>
       <c r="Y63" s="4313"/>
@@ -29822,135 +29822,135 @@
       <c r="AB63" s="4316"/>
       <c r="AC63" s="4317"/>
       <c r="AD63" s="6115" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE63" s="4319"/>
       <c r="AF63" s="4320" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG63" s="4321"/>
       <c r="AH63" s="4322" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI63" s="4323"/>
       <c r="AJ63" s="4324" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK63" s="4325"/>
       <c r="AL63" s="4326" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM63" s="4327"/>
       <c r="AN63" s="4328" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO63" s="4329"/>
       <c r="AP63" s="6116" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ63" s="4331"/>
       <c r="AR63" s="6117" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS63" s="4333"/>
       <c r="AT63" s="4334" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU63" s="4335"/>
       <c r="AV63" s="4336" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW63" s="4337"/>
       <c r="AX63" s="4338" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY63" s="4339"/>
       <c r="AZ63" s="4340" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA63" s="4341"/>
       <c r="BB63" s="4342" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC63" s="4343"/>
       <c r="BD63" s="6118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE63" s="4345"/>
       <c r="BF63" s="6119" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG63" s="4347"/>
       <c r="BH63" s="4348" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI63" s="4349"/>
       <c r="BJ63" s="4350"/>
       <c r="BK63" s="4351"/>
       <c r="BL63" s="4352" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM63" s="4353"/>
       <c r="BN63" s="4354" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO63" s="4355"/>
       <c r="BP63" s="4356" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ63" s="4357"/>
       <c r="BR63" s="4358" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS63" s="4359"/>
       <c r="BT63" s="4360" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU63" s="4361"/>
       <c r="BV63" s="6120" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW63" s="4363"/>
       <c r="BX63" s="6121" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY63" s="4365"/>
       <c r="BZ63" s="4366" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA63" s="4367"/>
       <c r="CB63" s="4368" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC63" s="4369"/>
       <c r="CD63" s="4370" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE63" s="4371"/>
       <c r="CF63" s="4372" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG63" s="4373"/>
       <c r="CH63" s="4374" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI63" s="4375"/>
       <c r="CJ63" s="6122" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK63" s="4377"/>
       <c r="CL63" s="6123" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM63" s="4379"/>
       <c r="CN63" s="6124" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO63" s="4381"/>
       <c r="CP63" s="4382"/>
       <c r="CQ63" s="4383"/>
       <c r="CR63" s="4384" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS63" s="4385"/>
       <c r="CT63" s="4386"/>
@@ -29987,7 +29987,7 @@
       <c r="AB64" s="4415"/>
       <c r="AC64" s="4416"/>
       <c r="AD64" s="6115" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE64" s="4418"/>
       <c r="AF64" s="4419" t="n">
@@ -30011,11 +30011,11 @@
       </c>
       <c r="AO64" s="4428"/>
       <c r="AP64" s="6116" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ64" s="4430"/>
       <c r="AR64" s="6117" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS64" s="4432"/>
       <c r="AT64" s="4433" t="n">
@@ -30039,11 +30039,11 @@
       </c>
       <c r="BC64" s="4442"/>
       <c r="BD64" s="6118" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE64" s="4444"/>
       <c r="BF64" s="6119" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG64" s="4446"/>
       <c r="BH64" s="4447"/>
@@ -30071,11 +30071,11 @@
       </c>
       <c r="BU64" s="4460"/>
       <c r="BV64" s="6120" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW64" s="4462"/>
       <c r="BX64" s="6121" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY64" s="4464"/>
       <c r="BZ64" s="4465" t="n">
@@ -30103,11 +30103,11 @@
       </c>
       <c r="CK64" s="4476"/>
       <c r="CL64" s="6123" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM64" s="4478"/>
       <c r="CN64" s="6124" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO64" s="4480"/>
       <c r="CP64" s="4481"/>
@@ -30137,7 +30137,7 @@
       <c r="M65" s="4499"/>
       <c r="N65" s="4500"/>
       <c r="O65" s="4501" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P65" s="4502"/>
       <c r="Q65" s="4503"/>
@@ -30149,7 +30149,7 @@
       <c r="U65" s="4507"/>
       <c r="V65" s="4508"/>
       <c r="W65" s="4509" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X65" s="4510"/>
       <c r="Y65" s="4511"/>
@@ -30158,55 +30158,55 @@
       <c r="AB65" s="4514"/>
       <c r="AC65" s="4515"/>
       <c r="AD65" s="6125" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE65" s="4517"/>
       <c r="AF65" s="4518" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG65" s="4519"/>
       <c r="AH65" s="4520" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI65" s="4521"/>
       <c r="AJ65" s="4522" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK65" s="4523"/>
       <c r="AL65" s="4524" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM65" s="4525"/>
       <c r="AN65" s="4526" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO65" s="4527"/>
       <c r="AP65" s="6126" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ65" s="4529"/>
       <c r="AR65" s="6127" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS65" s="4531"/>
       <c r="AT65" s="4532" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU65" s="4533"/>
       <c r="AV65" s="4534" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW65" s="4535"/>
       <c r="AX65" s="4536" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY65" s="4537"/>
       <c r="AZ65" s="4538" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA65" s="4539"/>
       <c r="BB65" s="4540" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC65" s="4541"/>
       <c r="BD65" s="4542"/>
@@ -30214,7 +30214,7 @@
       <c r="BF65" s="4544"/>
       <c r="BG65" s="4545"/>
       <c r="BH65" s="4546" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI65" s="4547"/>
       <c r="BJ65" s="4548"/>
@@ -30252,7 +30252,7 @@
       <c r="CP65" s="4580"/>
       <c r="CQ65" s="4581"/>
       <c r="CR65" s="4582" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CS65" s="4583"/>
       <c r="CT65" s="4584"/>
@@ -30289,7 +30289,7 @@
       <c r="AB66" s="4613"/>
       <c r="AC66" s="4614"/>
       <c r="AD66" s="6125" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE66" s="4616"/>
       <c r="AF66" s="4617" t="n">
@@ -30313,11 +30313,11 @@
       </c>
       <c r="AO66" s="4626"/>
       <c r="AP66" s="6126" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ66" s="4628"/>
       <c r="AR66" s="6127" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS66" s="4630"/>
       <c r="AT66" s="4631" t="n">
@@ -30405,7 +30405,7 @@
       <c r="M67" s="4697"/>
       <c r="N67" s="4698"/>
       <c r="O67" s="4699" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P67" s="4700"/>
       <c r="Q67" s="4701"/>
@@ -30426,135 +30426,135 @@
       <c r="AB67" s="4712"/>
       <c r="AC67" s="4713"/>
       <c r="AD67" s="6128" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE67" s="4715"/>
       <c r="AF67" s="4716" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG67" s="4717"/>
       <c r="AH67" s="4718" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI67" s="4719"/>
       <c r="AJ67" s="4720" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK67" s="4721"/>
       <c r="AL67" s="4722" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM67" s="4723"/>
       <c r="AN67" s="4724" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO67" s="4725"/>
       <c r="AP67" s="6129" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ67" s="4727"/>
       <c r="AR67" s="6130" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS67" s="4729"/>
       <c r="AT67" s="4730" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU67" s="4731"/>
       <c r="AV67" s="4732" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW67" s="4733"/>
       <c r="AX67" s="4734" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY67" s="4735"/>
       <c r="AZ67" s="4736" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA67" s="4737"/>
       <c r="BB67" s="4738" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC67" s="4739"/>
       <c r="BD67" s="6131" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE67" s="4741"/>
       <c r="BF67" s="6132" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG67" s="4743"/>
       <c r="BH67" s="4744" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI67" s="4745"/>
       <c r="BJ67" s="4746"/>
       <c r="BK67" s="4747"/>
       <c r="BL67" s="4748" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM67" s="4749"/>
       <c r="BN67" s="4750" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO67" s="4751"/>
       <c r="BP67" s="4752" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ67" s="4753"/>
       <c r="BR67" s="4754" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS67" s="4755"/>
       <c r="BT67" s="4756" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU67" s="4757"/>
       <c r="BV67" s="6133" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW67" s="4759"/>
       <c r="BX67" s="6134" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY67" s="4761"/>
       <c r="BZ67" s="4762" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA67" s="4763"/>
       <c r="CB67" s="4764" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC67" s="4765"/>
       <c r="CD67" s="4766" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE67" s="4767"/>
       <c r="CF67" s="4768" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG67" s="4769"/>
       <c r="CH67" s="4770" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI67" s="4771"/>
       <c r="CJ67" s="6135" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK67" s="4773"/>
       <c r="CL67" s="6136" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM67" s="4775"/>
       <c r="CN67" s="6137" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO67" s="4777"/>
       <c r="CP67" s="4778"/>
       <c r="CQ67" s="4779"/>
       <c r="CR67" s="4780" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS67" s="4781"/>
       <c r="CT67" s="4782"/>
@@ -30591,7 +30591,7 @@
       <c r="AB68" s="4811"/>
       <c r="AC68" s="4812"/>
       <c r="AD68" s="6128" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE68" s="4814"/>
       <c r="AF68" s="4815" t="n">
@@ -30615,11 +30615,11 @@
       </c>
       <c r="AO68" s="4824"/>
       <c r="AP68" s="6129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ68" s="4826"/>
       <c r="AR68" s="6130" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS68" s="4828"/>
       <c r="AT68" s="4829" t="n">
@@ -30643,11 +30643,11 @@
       </c>
       <c r="BC68" s="4838"/>
       <c r="BD68" s="6131" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE68" s="4840"/>
       <c r="BF68" s="6132" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG68" s="4842"/>
       <c r="BH68" s="4843"/>
@@ -30675,11 +30675,11 @@
       </c>
       <c r="BU68" s="4856"/>
       <c r="BV68" s="6133" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW68" s="4858"/>
       <c r="BX68" s="6134" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY68" s="4860"/>
       <c r="BZ68" s="4861" t="n">
@@ -30707,11 +30707,11 @@
       </c>
       <c r="CK68" s="4872"/>
       <c r="CL68" s="6136" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM68" s="4874"/>
       <c r="CN68" s="6137" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO68" s="4876"/>
       <c r="CP68" s="4877"/>
@@ -30741,7 +30741,7 @@
       <c r="M69" s="4895"/>
       <c r="N69" s="4896"/>
       <c r="O69" s="4897" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P69" s="4898"/>
       <c r="Q69" s="4899"/>
@@ -30753,7 +30753,7 @@
       <c r="U69" s="4903"/>
       <c r="V69" s="4904"/>
       <c r="W69" s="4905" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X69" s="4906"/>
       <c r="Y69" s="4907"/>
@@ -30762,135 +30762,135 @@
       <c r="AB69" s="4910"/>
       <c r="AC69" s="4911"/>
       <c r="AD69" s="6138" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE69" s="4913"/>
       <c r="AF69" s="4914" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG69" s="4915"/>
       <c r="AH69" s="4916" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI69" s="4917"/>
       <c r="AJ69" s="4918" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK69" s="4919"/>
       <c r="AL69" s="4920" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM69" s="4921"/>
       <c r="AN69" s="4922" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO69" s="4923"/>
       <c r="AP69" s="6139" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ69" s="4925"/>
       <c r="AR69" s="6140" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS69" s="4927"/>
       <c r="AT69" s="4928" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU69" s="4929"/>
       <c r="AV69" s="4930" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW69" s="4931"/>
       <c r="AX69" s="4932" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY69" s="4933"/>
       <c r="AZ69" s="4934" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA69" s="4935"/>
       <c r="BB69" s="4936" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC69" s="4937"/>
       <c r="BD69" s="6141" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE69" s="4939"/>
       <c r="BF69" s="6142" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG69" s="4941"/>
       <c r="BH69" s="4942" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI69" s="4943"/>
       <c r="BJ69" s="4944"/>
       <c r="BK69" s="4945"/>
       <c r="BL69" s="4946" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM69" s="4947"/>
       <c r="BN69" s="4948" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO69" s="4949"/>
       <c r="BP69" s="4950" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ69" s="4951"/>
       <c r="BR69" s="4952" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS69" s="4953"/>
       <c r="BT69" s="4954" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU69" s="4955"/>
       <c r="BV69" s="6143" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW69" s="4957"/>
       <c r="BX69" s="6144" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY69" s="4959"/>
       <c r="BZ69" s="4960" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA69" s="4961"/>
       <c r="CB69" s="4962" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC69" s="4963"/>
       <c r="CD69" s="4964" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE69" s="4965"/>
       <c r="CF69" s="4966" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG69" s="4967"/>
       <c r="CH69" s="4968" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI69" s="4969"/>
       <c r="CJ69" s="6145" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK69" s="4971"/>
       <c r="CL69" s="6146" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM69" s="4973"/>
       <c r="CN69" s="6147" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO69" s="4975"/>
       <c r="CP69" s="4976"/>
       <c r="CQ69" s="4977"/>
       <c r="CR69" s="4978" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS69" s="4979"/>
       <c r="CT69" s="4980"/>
@@ -30927,7 +30927,7 @@
       <c r="AB70" s="5009"/>
       <c r="AC70" s="5010"/>
       <c r="AD70" s="6138" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE70" s="5012"/>
       <c r="AF70" s="5013" t="n">
@@ -30951,11 +30951,11 @@
       </c>
       <c r="AO70" s="5022"/>
       <c r="AP70" s="6139" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ70" s="5024"/>
       <c r="AR70" s="6140" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS70" s="5026"/>
       <c r="AT70" s="5027" t="n">
@@ -30979,11 +30979,11 @@
       </c>
       <c r="BC70" s="5036"/>
       <c r="BD70" s="6141" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE70" s="5038"/>
       <c r="BF70" s="6142" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG70" s="5040"/>
       <c r="BH70" s="5041"/>
@@ -31011,11 +31011,11 @@
       </c>
       <c r="BU70" s="5054"/>
       <c r="BV70" s="6143" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW70" s="5056"/>
       <c r="BX70" s="6144" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY70" s="5058"/>
       <c r="BZ70" s="5059" t="n">
@@ -31043,11 +31043,11 @@
       </c>
       <c r="CK70" s="5070"/>
       <c r="CL70" s="6146" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM70" s="5072"/>
       <c r="CN70" s="6147" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO70" s="5074"/>
       <c r="CP70" s="5075"/>
@@ -31077,7 +31077,7 @@
       <c r="M71" s="5093"/>
       <c r="N71" s="5094"/>
       <c r="O71" s="5095" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P71" s="5096"/>
       <c r="Q71" s="5097"/>
@@ -31098,135 +31098,135 @@
       <c r="AB71" s="5108"/>
       <c r="AC71" s="5109"/>
       <c r="AD71" s="6148" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE71" s="5111"/>
       <c r="AF71" s="5112" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG71" s="5113"/>
       <c r="AH71" s="5114" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI71" s="5115"/>
       <c r="AJ71" s="5116" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK71" s="5117"/>
       <c r="AL71" s="5118" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM71" s="5119"/>
       <c r="AN71" s="5120" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO71" s="5121"/>
       <c r="AP71" s="6149" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ71" s="5123"/>
       <c r="AR71" s="6150" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS71" s="5125"/>
       <c r="AT71" s="5126" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU71" s="5127"/>
       <c r="AV71" s="5128" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW71" s="5129"/>
       <c r="AX71" s="5130" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY71" s="5131"/>
       <c r="AZ71" s="5132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA71" s="5133"/>
       <c r="BB71" s="5134" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC71" s="5135"/>
       <c r="BD71" s="6151" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE71" s="5137"/>
       <c r="BF71" s="6152" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG71" s="5139"/>
       <c r="BH71" s="5140" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI71" s="5141"/>
       <c r="BJ71" s="5142"/>
       <c r="BK71" s="5143"/>
       <c r="BL71" s="5144" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM71" s="5145"/>
       <c r="BN71" s="5146" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO71" s="5147"/>
       <c r="BP71" s="5148" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ71" s="5149"/>
       <c r="BR71" s="5150" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS71" s="5151"/>
       <c r="BT71" s="5152" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU71" s="5153"/>
       <c r="BV71" s="6153" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW71" s="5155"/>
       <c r="BX71" s="6154" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY71" s="5157"/>
       <c r="BZ71" s="5158" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA71" s="5159"/>
       <c r="CB71" s="5160" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC71" s="5161"/>
       <c r="CD71" s="5162" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE71" s="5163"/>
       <c r="CF71" s="5164" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG71" s="5165"/>
       <c r="CH71" s="5166" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI71" s="5167"/>
       <c r="CJ71" s="6155" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK71" s="5169"/>
       <c r="CL71" s="6156" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM71" s="5171"/>
       <c r="CN71" s="6157" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO71" s="5173"/>
       <c r="CP71" s="5174"/>
       <c r="CQ71" s="5175"/>
       <c r="CR71" s="5176" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS71" s="5177"/>
       <c r="CT71" s="5178"/>
@@ -31263,7 +31263,7 @@
       <c r="AB72" s="5207"/>
       <c r="AC72" s="5208"/>
       <c r="AD72" s="6148" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE72" s="5210"/>
       <c r="AF72" s="5211" t="n">
@@ -31287,11 +31287,11 @@
       </c>
       <c r="AO72" s="5220"/>
       <c r="AP72" s="6149" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ72" s="5222"/>
       <c r="AR72" s="6150" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS72" s="5224"/>
       <c r="AT72" s="5225" t="n">
@@ -31315,11 +31315,11 @@
       </c>
       <c r="BC72" s="5234"/>
       <c r="BD72" s="6151" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE72" s="5236"/>
       <c r="BF72" s="6152" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG72" s="5238"/>
       <c r="BH72" s="5239"/>
@@ -31347,11 +31347,11 @@
       </c>
       <c r="BU72" s="5252"/>
       <c r="BV72" s="6153" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW72" s="5254"/>
       <c r="BX72" s="6154" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY72" s="5256"/>
       <c r="BZ72" s="5257" t="n">
@@ -31379,11 +31379,11 @@
       </c>
       <c r="CK72" s="5268"/>
       <c r="CL72" s="6156" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM72" s="5270"/>
       <c r="CN72" s="6157" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO72" s="5272"/>
       <c r="CP72" s="5273"/>
@@ -31413,7 +31413,7 @@
       <c r="M73" s="5291"/>
       <c r="N73" s="5292"/>
       <c r="O73" s="5293" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P73" s="5294"/>
       <c r="Q73" s="5295"/>
@@ -31434,135 +31434,135 @@
       <c r="AB73" s="5306"/>
       <c r="AC73" s="5307"/>
       <c r="AD73" s="6158" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE73" s="5309"/>
       <c r="AF73" s="5310" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG73" s="5311"/>
       <c r="AH73" s="5312" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI73" s="5313"/>
       <c r="AJ73" s="5314" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK73" s="5315"/>
       <c r="AL73" s="5316" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM73" s="5317"/>
       <c r="AN73" s="5318" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO73" s="5319"/>
       <c r="AP73" s="6159" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ73" s="5321"/>
       <c r="AR73" s="6160" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS73" s="5323"/>
       <c r="AT73" s="5324" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU73" s="5325"/>
       <c r="AV73" s="5326" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW73" s="5327"/>
       <c r="AX73" s="5328" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY73" s="5329"/>
       <c r="AZ73" s="5330" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA73" s="5331"/>
       <c r="BB73" s="5332" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC73" s="5333"/>
       <c r="BD73" s="6161" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE73" s="5335"/>
       <c r="BF73" s="6162" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG73" s="5337"/>
       <c r="BH73" s="5338" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI73" s="5339"/>
       <c r="BJ73" s="5340"/>
       <c r="BK73" s="5341"/>
       <c r="BL73" s="5342" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM73" s="5343"/>
       <c r="BN73" s="5344" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO73" s="5345"/>
       <c r="BP73" s="5346" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ73" s="5347"/>
       <c r="BR73" s="5348" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS73" s="5349"/>
       <c r="BT73" s="5350" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU73" s="5351"/>
       <c r="BV73" s="6163" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW73" s="5353"/>
       <c r="BX73" s="6164" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY73" s="5355"/>
       <c r="BZ73" s="5356" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA73" s="5357"/>
       <c r="CB73" s="5358" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC73" s="5359"/>
       <c r="CD73" s="5360" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE73" s="5361"/>
       <c r="CF73" s="5362" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG73" s="5363"/>
       <c r="CH73" s="5364" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI73" s="5365"/>
       <c r="CJ73" s="6165" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK73" s="5367"/>
       <c r="CL73" s="6166" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM73" s="5369"/>
       <c r="CN73" s="6167" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO73" s="5371"/>
       <c r="CP73" s="5372"/>
       <c r="CQ73" s="5373"/>
       <c r="CR73" s="5374" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS73" s="5375"/>
       <c r="CT73" s="5376"/>
@@ -31599,7 +31599,7 @@
       <c r="AB74" s="5405"/>
       <c r="AC74" s="5406"/>
       <c r="AD74" s="6158" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE74" s="5408"/>
       <c r="AF74" s="5409" t="n">
@@ -31623,11 +31623,11 @@
       </c>
       <c r="AO74" s="5418"/>
       <c r="AP74" s="6159" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ74" s="5420"/>
       <c r="AR74" s="6160" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS74" s="5422"/>
       <c r="AT74" s="5423" t="n">
@@ -31651,11 +31651,11 @@
       </c>
       <c r="BC74" s="5432"/>
       <c r="BD74" s="6161" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE74" s="5434"/>
       <c r="BF74" s="6162" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG74" s="5436"/>
       <c r="BH74" s="5437"/>
@@ -31683,11 +31683,11 @@
       </c>
       <c r="BU74" s="5450"/>
       <c r="BV74" s="6163" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW74" s="5452"/>
       <c r="BX74" s="6164" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY74" s="5454"/>
       <c r="BZ74" s="5455" t="n">
@@ -31715,11 +31715,11 @@
       </c>
       <c r="CK74" s="5466"/>
       <c r="CL74" s="6166" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM74" s="5468"/>
       <c r="CN74" s="6167" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO74" s="5470"/>
       <c r="CP74" s="5471"/>
@@ -31749,7 +31749,7 @@
       <c r="M75" s="5489"/>
       <c r="N75" s="5490"/>
       <c r="O75" s="5491" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P75" s="5492"/>
       <c r="Q75" s="5493"/>
@@ -31770,135 +31770,135 @@
       <c r="AB75" s="5504"/>
       <c r="AC75" s="5505"/>
       <c r="AD75" s="6168" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE75" s="5507"/>
       <c r="AF75" s="5508" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG75" s="5509"/>
       <c r="AH75" s="5510" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI75" s="5511"/>
       <c r="AJ75" s="5512" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK75" s="5513"/>
       <c r="AL75" s="5514" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM75" s="5515"/>
       <c r="AN75" s="5516" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO75" s="5517"/>
       <c r="AP75" s="6169" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ75" s="5519"/>
       <c r="AR75" s="6170" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS75" s="5521"/>
       <c r="AT75" s="5522" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU75" s="5523"/>
       <c r="AV75" s="5524" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW75" s="5525"/>
       <c r="AX75" s="5526" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY75" s="5527"/>
       <c r="AZ75" s="5528" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA75" s="5529"/>
       <c r="BB75" s="5530" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC75" s="5531"/>
       <c r="BD75" s="6171" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE75" s="5533"/>
       <c r="BF75" s="6172" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG75" s="5535"/>
       <c r="BH75" s="5536" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BI75" s="5537"/>
       <c r="BJ75" s="5538"/>
       <c r="BK75" s="5539"/>
       <c r="BL75" s="5540" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM75" s="5541"/>
       <c r="BN75" s="5542" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO75" s="5543"/>
       <c r="BP75" s="5544" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ75" s="5545"/>
       <c r="BR75" s="5546" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BS75" s="5547"/>
       <c r="BT75" s="5548" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BU75" s="5549"/>
       <c r="BV75" s="6173" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW75" s="5551"/>
       <c r="BX75" s="6174" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY75" s="5553"/>
       <c r="BZ75" s="5554" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA75" s="5555"/>
       <c r="CB75" s="5556" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC75" s="5557"/>
       <c r="CD75" s="5558" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE75" s="5559"/>
       <c r="CF75" s="5560" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG75" s="5561"/>
       <c r="CH75" s="5562" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI75" s="5563"/>
       <c r="CJ75" s="6175" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK75" s="5565"/>
       <c r="CL75" s="6176" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM75" s="5567"/>
       <c r="CN75" s="6177" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO75" s="5569"/>
       <c r="CP75" s="5570"/>
       <c r="CQ75" s="5571"/>
       <c r="CR75" s="5572" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CS75" s="5573"/>
       <c r="CT75" s="5574"/>
@@ -31935,7 +31935,7 @@
       <c r="AB76" s="5603"/>
       <c r="AC76" s="5604"/>
       <c r="AD76" s="6168" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE76" s="5606"/>
       <c r="AF76" s="5607" t="n">
@@ -31959,11 +31959,11 @@
       </c>
       <c r="AO76" s="5616"/>
       <c r="AP76" s="6169" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ76" s="5618"/>
       <c r="AR76" s="6170" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS76" s="5620"/>
       <c r="AT76" s="5621" t="n">
@@ -31987,11 +31987,11 @@
       </c>
       <c r="BC76" s="5630"/>
       <c r="BD76" s="6171" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE76" s="5632"/>
       <c r="BF76" s="6172" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG76" s="5634"/>
       <c r="BH76" s="5635"/>
@@ -32019,11 +32019,11 @@
       </c>
       <c r="BU76" s="5648"/>
       <c r="BV76" s="6173" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW76" s="5650"/>
       <c r="BX76" s="6174" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY76" s="5652"/>
       <c r="BZ76" s="5653" t="n">
@@ -32051,11 +32051,11 @@
       </c>
       <c r="CK76" s="5664"/>
       <c r="CL76" s="6176" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM76" s="5666"/>
       <c r="CN76" s="6177" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO76" s="5668"/>
       <c r="CP76" s="5669"/>
@@ -32085,7 +32085,7 @@
       <c r="M77" s="5687"/>
       <c r="N77" s="5688"/>
       <c r="O77" s="5689" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P77" s="5690"/>
       <c r="Q77" s="5691"/>
@@ -32097,7 +32097,7 @@
       <c r="U77" s="5695"/>
       <c r="V77" s="5696"/>
       <c r="W77" s="5697" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X77" s="5698"/>
       <c r="Y77" s="5699"/>
@@ -32106,11 +32106,11 @@
       <c r="AB77" s="5702"/>
       <c r="AC77" s="5703"/>
       <c r="AD77" s="6178" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE77" s="5705"/>
       <c r="AF77" s="5706" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG77" s="5707"/>
       <c r="AH77" s="6179" t="s">
@@ -32130,39 +32130,39 @@
       </c>
       <c r="AO77" s="5715"/>
       <c r="AP77" s="6183" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ77" s="5717"/>
       <c r="AR77" s="6184" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS77" s="5719"/>
       <c r="AT77" s="5720" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU77" s="5721"/>
       <c r="AV77" s="5722" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW77" s="5723"/>
       <c r="AX77" s="5724" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY77" s="5725"/>
       <c r="AZ77" s="5726" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BA77" s="5727"/>
       <c r="BB77" s="5728" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BC77" s="5729"/>
       <c r="BD77" s="6185" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BE77" s="5731"/>
       <c r="BF77" s="6186" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BG77" s="5733"/>
       <c r="BH77" s="5734" t="s">
@@ -32172,15 +32172,15 @@
       <c r="BJ77" s="5736"/>
       <c r="BK77" s="5737"/>
       <c r="BL77" s="5738" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM77" s="5739"/>
       <c r="BN77" s="5740" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BO77" s="5741"/>
       <c r="BP77" s="5742" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BQ77" s="5743"/>
       <c r="BR77" s="6187" t="s">
@@ -32192,43 +32192,43 @@
       </c>
       <c r="BU77" s="5747"/>
       <c r="BV77" s="6189" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BW77" s="5749"/>
       <c r="BX77" s="6190" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BY77" s="5751"/>
       <c r="BZ77" s="5752" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA77" s="5753"/>
       <c r="CB77" s="5754" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CC77" s="5755"/>
       <c r="CD77" s="5756" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CE77" s="5757"/>
       <c r="CF77" s="5758" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CG77" s="5759"/>
       <c r="CH77" s="5760" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI77" s="5761"/>
       <c r="CJ77" s="6191" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CK77" s="5763"/>
       <c r="CL77" s="6192" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CM77" s="5765"/>
       <c r="CN77" s="6193" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO77" s="5767"/>
       <c r="CP77" s="5768"/>
@@ -32271,7 +32271,7 @@
       <c r="AB78" s="6198"/>
       <c r="AC78" s="6199"/>
       <c r="AD78" s="6200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE78" s="6201"/>
       <c r="AF78" s="6201" t="n">
@@ -32279,27 +32279,27 @@
       </c>
       <c r="AG78" s="6201"/>
       <c r="AH78" s="6206" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI78" s="6201"/>
       <c r="AJ78" s="6206" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK78" s="6201"/>
       <c r="AL78" s="6206" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM78" s="6201"/>
       <c r="AN78" s="6206" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO78" s="6201"/>
       <c r="AP78" s="6200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ78" s="6201"/>
       <c r="AR78" s="6200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS78" s="6201"/>
       <c r="AT78" s="6201" t="n">
@@ -32323,11 +32323,11 @@
       </c>
       <c r="BC78" s="6201"/>
       <c r="BD78" s="6200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BE78" s="6201"/>
       <c r="BF78" s="6200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG78" s="6201"/>
       <c r="BH78" s="6202"/>
@@ -32347,19 +32347,19 @@
       </c>
       <c r="BQ78" s="6201"/>
       <c r="BR78" s="6206" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BS78" s="6201"/>
       <c r="BT78" s="6206" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU78" s="6201"/>
       <c r="BV78" s="6200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BW78" s="6201"/>
       <c r="BX78" s="6200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY78" s="6201"/>
       <c r="BZ78" s="6201" t="n">
@@ -32387,11 +32387,11 @@
       </c>
       <c r="CK78" s="6201"/>
       <c r="CL78" s="6200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM78" s="6201"/>
       <c r="CN78" s="6200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CO78" s="6201"/>
       <c r="CP78" s="6201"/>
@@ -33140,7 +33140,7 @@
         <v>2</v>
       </c>
       <c r="B86" s="54" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C86" s="54"/>
       <c r="D86" s="54"/>
@@ -33148,7 +33148,7 @@
         <v>3</v>
       </c>
       <c r="F86" s="54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G86" s="54"/>
       <c r="H86" s="54"/>
